--- a/data/HR1/Location1/Location1_2050.xlsx
+++ b/data/HR1/Location1/Location1_2050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B780EB-1A7F-423C-BFDA-FC5D2339B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9CE0FB-E8D2-4855-9ACA-73F1DCF0FCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9321,7 +9321,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -9360,7 +9360,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -9380,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -22081,99 +22081,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4329605305301802</v>
+        <v>6.6896644774771623</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7164802652650901</v>
+        <v>3.3448322387385812</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4133203150022942</v>
+        <v>3.9719882835020646</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860224</v>
+        <v>0.31357802238174204</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.090520149211613</v>
+        <v>1.8814681342904518</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3936800994744087</v>
+        <v>1.2543120895269679</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -22182,99 +22182,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.29888159159054</v>
+        <v>20.068993432431487</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.672921475537063</v>
+        <v>18.605629327983355</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.208361442378923</v>
+        <v>18.187525298141033</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.672921475537063</v>
+        <v>18.605629327983355</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.556781467247529</v>
+        <v>18.501103320522777</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.32450145066846</v>
+        <v>18.292051305601614</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.066601575011472</v>
+        <v>19.859941417510324</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.338162022646308</v>
+        <v>25.50434582038168</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.009382213305592</v>
+        <v>27.908443991975034</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.731842122120721</v>
+        <v>26.758657909908649</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.66096218843699</v>
+        <v>27.59486596959329</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.7062222630428</v>
+        <v>28.535600036738519</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.24166222988466</v>
+        <v>28.117496006896197</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.822362271332331</v>
+        <v>28.6401260441991</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.57044203922538</v>
+        <v>25.713397835302843</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.383422097252119</v>
+        <v>26.445079887526905</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.802722055804448</v>
+        <v>25.922449850224002</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.499562105541649</v>
+        <v>26.549605894987486</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.383422097252119</v>
+        <v>26.445079887526905</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.196402155278854</v>
+        <v>27.176761939750971</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.196402155278854</v>
+        <v>27.176761939750971</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.009382213305592</v>
+        <v>27.908443991975034</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.222022014356778</v>
+        <v>25.399819812921098</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.783081840276559</v>
+        <v>23.204773656248904</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -22283,99 +22283,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.312542163568391</v>
+        <v>27.281287947211553</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.08026214698932</v>
+        <v>27.072235932290386</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.641321972909108</v>
+        <v>24.877189775618199</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.151142080673051</v>
+        <v>26.236027872605749</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.363781881724229</v>
+        <v>23.727403693551807</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.267282088962585</v>
+        <v>26.340553880066327</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.235682586334626</v>
+        <v>32.612114327701164</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>44.133203150022943</v>
+        <v>39.719882835020648</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>42.971803067127603</v>
+        <v>38.674622760414849</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>44.713903191470614</v>
+        <v>40.242512872323552</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>41.694262975942728</v>
+        <v>37.524836678348457</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>44.017063141733409</v>
+        <v>39.615356827560063</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>43.320223091996198</v>
+        <v>38.988200782796582</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>44.249343158312477</v>
+        <v>39.824408842481226</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>43.320223091996198</v>
+        <v>38.988200782796582</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.790762768704376</v>
+        <v>34.911686491833933</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.48760281844158</v>
+        <v>35.538842536597421</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.023042785283444</v>
+        <v>35.120738506755103</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.139182793572978</v>
+        <v>35.225264514215681</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>40.765142909626455</v>
+        <v>36.688628618663813</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.719882835020648</v>
+        <v>35.747894551518591</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.836022843310175</v>
+        <v>35.852420558979162</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.887262561466024</v>
+        <v>32.298536305319423</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.725862478570683</v>
+        <v>31.253276230713617</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -22384,99 +22384,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>45.17846322462875</v>
+        <v>40.66061690216587</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.836022843310175</v>
+        <v>35.852420558979162</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.048662644361364</v>
+        <v>33.34379637992523</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.235682586334626</v>
+        <v>32.612114327701164</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.048662644361364</v>
+        <v>33.34379637992523</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.377442453702081</v>
+        <v>30.939698208331869</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>41.113562934495057</v>
+        <v>37.002206641045554</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.940203564499647</v>
+        <v>44.946183208049682</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.514923962397276</v>
+        <v>49.963431566157546</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.953864136477492</v>
+        <v>52.158477722829744</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.367184451479794</v>
+        <v>56.130466006331815</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>64.806124625560003</v>
+        <v>58.325512163003999</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.87700455924373</v>
+        <v>57.489304103319355</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>65.735244691876275</v>
+        <v>59.161720222688658</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>61.089644360294919</v>
+        <v>54.980679924265424</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>61.902624418321658</v>
+        <v>55.712361976489497</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.812104269110037</v>
+        <v>53.830893842199039</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>61.205784368584446</v>
+        <v>55.085205931726001</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.721584119898431</v>
+        <v>51.949425707908588</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.489304103319355</v>
+        <v>51.740373692987426</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.373164095029829</v>
+        <v>51.635847685526855</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>61.205784368584453</v>
+        <v>55.085205931726009</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>60.973504352005378</v>
+        <v>54.876153916804846</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.727563763448472</v>
+        <v>47.454807387103621</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -22485,99 +22485,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0649002901336919</v>
+        <v>3.6584102611203226</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534771</v>
+        <v>1.4633641044481296</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011475</v>
+        <v>1.9859941417510329</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8582401326325446</v>
+        <v>1.6724161193692901</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813665</v>
+        <v>0.41810402984232298</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673756</v>
+        <v>0.73168205222406379</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2971803067127592</v>
+        <v>3.8674622760414836</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5234806797417928</v>
+        <v>8.571132611767613</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.962420853822008</v>
+        <v>10.76617876843981</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.775400911848747</v>
+        <v>11.497860820663872</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.775400911848747</v>
+        <v>11.497860820663872</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.982061069349891</v>
+        <v>13.483854962414904</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.401361027902222</v>
+        <v>12.961224925111999</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.982061069349891</v>
+        <v>13.483854962414904</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.28522101961269</v>
+        <v>12.856698917651421</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.426980886980143</v>
+        <v>11.184282798282128</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.078560862111541</v>
+        <v>10.870704775900387</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.846280845532473</v>
+        <v>10.661652760979226</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.49786082066387</v>
+        <v>10.348074738597482</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.265580804084802</v>
+        <v>10.139022723676323</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.078560862111541</v>
+        <v>10.870704775900387</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.749781052770825</v>
+        <v>13.274802947493743</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.562761110797561</v>
+        <v>14.006484999717806</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.801020770926668</v>
+        <v>9.7209186938340011</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -22687,99 +22687,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>48.662663473314765</v>
+        <v>43.796397125983297</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>64.573844608980934</v>
+        <v>58.116460148082844</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>79.904325703199433</v>
+        <v>71.913893132879494</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>68.754884907404161</v>
+        <v>61.879396416663745</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.644724542664662</v>
+        <v>57.2802520883982</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.824063556210106</v>
+        <v>44.841657200589097</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.499562105541649</v>
+        <v>26.549605894987486</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.149440795795272</v>
+        <v>10.034496716215745</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4585803896081</v>
+        <v>4.9127223506472903</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.736120480792974</v>
+        <v>-6.0625084327136767</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.2971803067127592</v>
+        <v>-3.8674622760414836</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-14.052941003033622</v>
+        <v>-12.647646902730262</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17.304861235140574</v>
+        <v>-15.574375111626518</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-21.950461566721934</v>
+        <v>-19.755415410049739</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.336460737768531</v>
+        <v>-9.3028146639916773</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639435</v>
+        <v>-1.3588380969875491</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8975205636883148</v>
+        <v>7.1077685073194834</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5234806797417928</v>
+        <v>8.571132611767613</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.995721641327741</v>
+        <v>20.696149477194965</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.460281674485881</v>
+        <v>21.11425350703729</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.143461152245234</v>
+        <v>14.529115037020711</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3168205222406462</v>
+        <v>6.5851384700165818</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.936800994744086</v>
+        <v>12.543120895269679</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.446621102508031</v>
+        <v>13.901958992257228</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -22788,99 +22788,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.403062312780001</v>
+        <v>29.162756081502</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.822362271332331</v>
+        <v>28.6401260441991</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.151142080673051</v>
+        <v>26.236027872605749</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.918862064093979</v>
+        <v>26.026975857684583</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.57044203922538</v>
+        <v>25.713397835302843</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.731842122120721</v>
+        <v>26.758657909908649</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.964122138699789</v>
+        <v>26.967709924829812</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.519202321069535</v>
+        <v>29.267282088962581</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.029022428833478</v>
+        <v>30.626120185950132</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.912882420543944</v>
+        <v>30.521594178489551</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.751482337648604</v>
+        <v>29.476334103883744</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.590082254753263</v>
+        <v>28.431074029277937</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.499562105541649</v>
+        <v>26.549605894987486</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.847982130410252</v>
+        <v>26.863183917369227</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.52518196461957</v>
+        <v>24.772663768157614</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.10588200606724</v>
+        <v>25.295293805460521</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.035002072383513</v>
+        <v>26.131501865145164</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.847982130410252</v>
+        <v>26.863183917369227</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.983762354227672</v>
+        <v>29.685386118804903</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.164802652650899</v>
+        <v>33.448322387385808</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.983762354227672</v>
+        <v>29.685386118804903</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.493582461991615</v>
+        <v>31.044224215792454</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.099902362517206</v>
+        <v>29.789912126265488</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.247641873434699</v>
+        <v>23.622877686091233</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -22889,99 +22889,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>121.94700870401076</v>
+        <v>109.75230783360969</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>102.20320729478998</v>
+        <v>91.982886565310977</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>87.105006217150546</v>
+        <v>78.39450559543549</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>83.620805968464524</v>
+        <v>75.25872537161807</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>83.620805968464524</v>
+        <v>75.25872537161807</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>98.719007046103954</v>
+        <v>88.847106341493557</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>138.20660986454553</v>
+        <v>124.38594887809099</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>153.30481094218496</v>
+        <v>137.97432984796646</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>184.66261318035916</v>
+        <v>166.19635186232324</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>193.95381384352189</v>
+        <v>174.55843245916969</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>199.76081425799859</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>216.02041541853336</v>
+        <v>194.41837387668002</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>232.2800165790681</v>
+        <v>209.05201492116132</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>226.4730161645914</v>
+        <v>203.82571454813228</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>218.34321558432404</v>
+        <v>196.50889402589164</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>207.89061483826598</v>
+        <v>187.10155335443937</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>195.11521392641723</v>
+        <v>175.60369253377553</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>193.95381384352189</v>
+        <v>174.55843245916969</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>183.50121309746382</v>
+        <v>165.15109178771746</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>191.6310136777312</v>
+        <v>172.46791230995808</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>191.6310136777312</v>
+        <v>172.46791230995808</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>199.76081425799859</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>185.8240132632545</v>
+        <v>167.24161193692905</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>140.52941003033621</v>
+        <v>126.4764690273026</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -22990,99 +22990,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1357802238174197</v>
+        <v>2.8222022014356778</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7164802652650901</v>
+        <v>3.3448322387385812</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0196402155278856</v>
+        <v>2.7176761939750973</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4842002486860215</v>
+        <v>3.1357802238174197</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3228001657906812</v>
+        <v>2.090520149211613</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953406</v>
+        <v>1.0452600746058065</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3228001657906812</v>
+        <v>2.090520149211613</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6456003315813623</v>
+        <v>4.181040298423226</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8070004144767031</v>
+        <v>5.2263003730290327</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7617403398708964</v>
+        <v>4.2855663058838065</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2006805139511121</v>
+        <v>6.4806124625560004</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2971803067127601</v>
+        <v>3.8674622760414841</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0649002901336919</v>
+        <v>3.6584102611203226</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7105006217150542</v>
+        <v>7.8394505595435486</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2971803067127601</v>
+        <v>3.8674622760414841</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3877004559243735</v>
+        <v>5.7489304103319361</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1554204393453045</v>
+        <v>5.5398783954107742</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8522604890825098</v>
+        <v>6.1670344401742589</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8326202735546238</v>
+        <v>3.4493582461991612</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1101603647394986</v>
+        <v>4.5991443282655489</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.600340256975556</v>
+        <v>3.2403062312780002</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9940203564499646</v>
+        <v>4.4946183208049684</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8522604890825098</v>
+        <v>6.1670344401742589</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.600340256975556</v>
+        <v>3.2403062312780002</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -23091,99 +23091,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.828341914882365</v>
+        <v>24.145507723394129</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.666941831987028</v>
+        <v>23.100247648788326</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.389401740802153</v>
+        <v>21.950461566721941</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.434661815407956</v>
+        <v>22.891195633867163</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.202381798828895</v>
+        <v>22.682143618946007</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.434661815407956</v>
+        <v>22.891195633867163</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.145162437123012</v>
+        <v>30.730646193410713</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.442342743835766</v>
+        <v>34.598108469452193</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>40.649002901336921</v>
+        <v>36.584102611203228</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.442342743835773</v>
+        <v>34.5981084694522</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.280942660940433</v>
+        <v>33.552848394846393</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.83602284331019</v>
+        <v>35.852420558979169</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.603742826731114</v>
+        <v>35.643368544058006</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.048662644361364</v>
+        <v>33.34379637992523</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.422702528307887</v>
+        <v>31.880432275477098</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.145162437123012</v>
+        <v>30.730646193410713</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.145162437123012</v>
+        <v>30.730646193410713</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.635342329359069</v>
+        <v>29.371808096423166</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.564462395675342</v>
+        <v>30.208016156107806</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.306562520018353</v>
+        <v>31.775906268016517</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.725862478570683</v>
+        <v>31.25327623071362</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.700242619492762</v>
+        <v>33.03021835754349</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.145162437123012</v>
+        <v>30.730646193410713</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.267282088962585</v>
+        <v>26.340553880066327</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -23192,99 +23192,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7813805553987807</v>
+        <v>7.0032424998589029</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0845405056615771</v>
+        <v>6.3760864550954199</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6199804725034408</v>
+        <v>5.9579824252530971</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4329605305301794</v>
+        <v>6.6896644774771614</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8975205636883166</v>
+        <v>7.1077685073194852</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7361204807929749</v>
+        <v>6.0625084327136776</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5234806797417928</v>
+        <v>8.571132611767613</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5943606134255202</v>
+        <v>7.7349245520829681</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9427806382941224</v>
+        <v>8.0485025744647114</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6396206880313269</v>
+        <v>8.6756586192281944</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.2459405885569179</v>
+        <v>7.4213465297012258</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0589206465836565</v>
+        <v>8.153028581925291</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8266406300045883</v>
+        <v>7.9439765670041291</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.362080596846452</v>
+        <v>7.5258725371618072</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7105006217150542</v>
+        <v>7.8394505595435486</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.362080596846452</v>
+        <v>7.5258725371618072</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.2912006631627246</v>
+        <v>8.362080596846452</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8266406300045883</v>
+        <v>7.9439765670041291</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5943606134255202</v>
+        <v>7.7349245520829681</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.104180721189461</v>
+        <v>9.0937626490705163</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.871900704610395</v>
+        <v>8.8847106341493554</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.568740754347601</v>
+        <v>9.5118666789128401</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1750606548731906</v>
+        <v>8.2575545893858706</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6396206880313269</v>
+        <v>8.6756586192281944</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -23293,11 +23293,11 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23313,79 +23313,79 @@
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906813</v>
+        <v>-0.20905201492116132</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673834</v>
+        <v>0.73168205222406457</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673834</v>
+        <v>0.73168205222406457</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953407</v>
+        <v>0.10452600746058066</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -23394,99 +23394,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4585803896081009</v>
+        <v>4.9127223506472912</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2263003730290327</v>
+        <v>4.7036703357261294</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2263003730290327</v>
+        <v>4.7036703357261294</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8070004144767031</v>
+        <v>5.2263003730290327</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2263003730290327</v>
+        <v>4.7036703357261294</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9940203564499646</v>
+        <v>4.4946183208049684</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9940203564499646</v>
+        <v>4.4946183208049684</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1101603647394986</v>
+        <v>4.5991443282655489</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3424403813185659</v>
+        <v>4.8081963431867099</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9940203564499646</v>
+        <v>4.4946183208049684</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3877004559243735</v>
+        <v>5.7489304103319361</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9940203564499646</v>
+        <v>4.4946183208049684</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2715604476348394</v>
+        <v>5.6444044028713556</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6199804725034417</v>
+        <v>5.9579824252530971</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5038404642139067</v>
+        <v>5.8534564177925166</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7361204807929749</v>
+        <v>6.0625084327136776</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5038404642139067</v>
+        <v>5.8534564177925166</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0845405056615771</v>
+        <v>6.3760864550954199</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9940203564499646</v>
+        <v>4.4946183208049684</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4133203150022942</v>
+        <v>3.9719882835020646</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4133203150022942</v>
+        <v>3.9719882835020646</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6456003315813623</v>
+        <v>4.181040298423226</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8778803481604305</v>
+        <v>4.3900923133443879</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -23495,99 +23495,99 @@
       </c>
       <c r="B16" s="1">
         <f>'[1]Pc, 2020, Summer'!B16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6199804725034417</v>
+        <v>5.9579824252530971</v>
       </c>
       <c r="C16" s="1">
         <f>'[1]Pc, 2020, Summer'!C16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0392804310557713</v>
+        <v>5.4353523879501946</v>
       </c>
       <c r="D16" s="1">
         <f>'[1]Pc, 2020, Summer'!D16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.690860406187169</v>
+        <v>5.1217743655684522</v>
       </c>
       <c r="E16" s="1">
         <f>'[1]Pc, 2020, Summer'!E16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.574720397897635</v>
+        <v>5.0172483581078717</v>
       </c>
       <c r="F16" s="1">
         <f>'[1]Pc, 2020, Summer'!F16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.574720397897635</v>
+        <v>5.0172483581078717</v>
       </c>
       <c r="G16" s="1">
         <f>'[1]Pc, 2020, Summer'!G16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.574720397897635</v>
+        <v>5.0172483581078717</v>
       </c>
       <c r="H16" s="1">
         <f>'[1]Pc, 2020, Summer'!H16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0136605719778498</v>
+        <v>7.2122945147800657</v>
       </c>
       <c r="I16" s="1">
         <f>'[1]Pc, 2020, Summer'!I16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.917160779216202</v>
+        <v>9.8254447012945825</v>
       </c>
       <c r="J16" s="1">
         <f>'[1]Pc, 2020, Summer'!J16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.381720812374338</v>
+        <v>10.243548731136904</v>
       </c>
       <c r="K16" s="1">
         <f>'[1]Pc, 2020, Summer'!K16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.265580804084802</v>
+        <v>10.139022723676323</v>
       </c>
       <c r="L16" s="1">
         <f>'[1]Pc, 2020, Summer'!L16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.033300787505736</v>
+        <v>9.9299707087551621</v>
       </c>
       <c r="M16" s="1">
         <f>'[1]Pc, 2020, Summer'!M16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.381720812374338</v>
+        <v>10.243548731136904</v>
       </c>
       <c r="N16" s="1">
         <f>'[1]Pc, 2020, Summer'!N16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.962420853822008</v>
+        <v>10.76617876843981</v>
       </c>
       <c r="O16" s="1">
         <f>'[1]Pc, 2020, Summer'!O16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.614000828953406</v>
+        <v>10.452600746058065</v>
       </c>
       <c r="P16" s="1">
         <f>'[1]Pc, 2020, Summer'!P16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.917160779216202</v>
+        <v>9.8254447012945825</v>
       </c>
       <c r="Q16" s="1">
         <f>'[1]Pc, 2020, Summer'!Q16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9880407128999291</v>
+        <v>8.9892366416099367</v>
       </c>
       <c r="R16" s="1">
         <f>'[1]Pc, 2020, Summer'!R16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9880407128999291</v>
+        <v>8.9892366416099367</v>
       </c>
       <c r="S16" s="1">
         <f>'[1]Pc, 2020, Summer'!S16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.104180721189461</v>
+        <v>9.0937626490705163</v>
       </c>
       <c r="T16" s="1">
         <f>'[1]Pc, 2020, Summer'!T16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.265580804084802</v>
+        <v>10.139022723676323</v>
       </c>
       <c r="U16" s="1">
         <f>'[1]Pc, 2020, Summer'!U16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.452600746058065</v>
+        <v>9.4073406714522587</v>
       </c>
       <c r="V16" s="1">
         <f>'[1]Pc, 2020, Summer'!V16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.033300787505736</v>
+        <v>9.9299707087551621</v>
       </c>
       <c r="W16" s="1">
         <f>'[1]Pc, 2020, Summer'!W16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.73014083724294</v>
+        <v>10.557126753518645</v>
       </c>
       <c r="X16" s="1">
         <f>'[1]Pc, 2020, Summer'!X16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.220320729478997</v>
+        <v>9.1982886565310977</v>
       </c>
       <c r="Y16" s="1">
         <f>'[1]Pc, 2020, Summer'!Y16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0136605719778498</v>
+        <v>7.2122945147800657</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -23596,99 +23596,99 @@
       </c>
       <c r="B17" s="1">
         <f>'[1]Pc, 2020, Summer'!B17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.970101782249824</v>
+        <v>22.473091604024841</v>
       </c>
       <c r="C17" s="1">
         <f>'[1]Pc, 2020, Summer'!C17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.87958163303821</v>
+        <v>20.59162346973439</v>
       </c>
       <c r="D17" s="1">
         <f>'[1]Pc, 2020, Summer'!D17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.41502159988007</v>
+        <v>20.173519439892061</v>
       </c>
       <c r="E17" s="1">
         <f>'[1]Pc, 2020, Summer'!E17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.485901533563801</v>
+        <v>19.337311380207424</v>
       </c>
       <c r="F17" s="1">
         <f>'[1]Pc, 2020, Summer'!F17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.253621516984733</v>
+        <v>19.128259365286262</v>
       </c>
       <c r="G17" s="1">
         <f>'[1]Pc, 2020, Summer'!G17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.137481508695199</v>
+        <v>19.023733357825677</v>
       </c>
       <c r="H17" s="1">
         <f>'[1]Pc, 2020, Summer'!H17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.409041956330039</v>
+        <v>24.668137760697036</v>
       </c>
       <c r="I17" s="1">
         <f>'[1]Pc, 2020, Summer'!I17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.473942246463732</v>
+        <v>28.326548021817356</v>
       </c>
       <c r="J17" s="1">
         <f>'[1]Pc, 2020, Summer'!J17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.564462395675342</v>
+        <v>30.208016156107806</v>
       </c>
       <c r="K17" s="1">
         <f>'[1]Pc, 2020, Summer'!K17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.842002486860217</v>
+        <v>31.357802238174195</v>
       </c>
       <c r="L17" s="1">
         <f>'[1]Pc, 2020, Summer'!L17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.609722470281149</v>
+        <v>31.148750223253035</v>
       </c>
       <c r="M17" s="1">
         <f>'[1]Pc, 2020, Summer'!M17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.422702528307887</v>
+        <v>31.880432275477098</v>
       </c>
       <c r="N17" s="1">
         <f>'[1]Pc, 2020, Summer'!N17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.422702528307887</v>
+        <v>31.880432275477098</v>
       </c>
       <c r="O17" s="1">
         <f>'[1]Pc, 2020, Summer'!O17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.164802652650899</v>
+        <v>33.448322387385808</v>
       </c>
       <c r="P17" s="1">
         <f>'[1]Pc, 2020, Summer'!P17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.912882420543951</v>
+        <v>30.521594178489554</v>
       </c>
       <c r="Q17" s="1">
         <f>'[1]Pc, 2020, Summer'!Q17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.725862478570683</v>
+        <v>31.253276230713617</v>
       </c>
       <c r="R17" s="1">
         <f>'[1]Pc, 2020, Summer'!R17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.261302445412547</v>
+        <v>30.835172200871295</v>
       </c>
       <c r="S17" s="1">
         <f>'[1]Pc, 2020, Summer'!S17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.261302445412547</v>
+        <v>30.835172200871295</v>
       </c>
       <c r="T17" s="1">
         <f>'[1]Pc, 2020, Summer'!T17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.983762354227672</v>
+        <v>29.685386118804903</v>
       </c>
       <c r="U17" s="1">
         <f>'[1]Pc, 2020, Summer'!U17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.983762354227672</v>
+        <v>29.685386118804903</v>
       </c>
       <c r="V17" s="1">
         <f>'[1]Pc, 2020, Summer'!V17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.635342329359069</v>
+        <v>29.371808096423166</v>
       </c>
       <c r="W17" s="1">
         <f>'[1]Pc, 2020, Summer'!W17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.306562520018353</v>
+        <v>31.775906268016517</v>
       </c>
       <c r="X17" s="1">
         <f>'[1]Pc, 2020, Summer'!X17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.564462395675342</v>
+        <v>30.208016156107806</v>
       </c>
       <c r="Y17" s="1">
         <f>'[1]Pc, 2020, Summer'!Y17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.918862064093979</v>
+        <v>26.026975857684583</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -23697,99 +23697,99 @@
       </c>
       <c r="B18" s="1">
         <f>'[1]Pc, 2020, Summer'!B18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.659260903559213</v>
+        <v>11.393334813203291</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]Pc, 2020, Summer'!C18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.614000828953406</v>
+        <v>10.452600746058065</v>
       </c>
       <c r="D18" s="1">
         <f>'[1]Pc, 2020, Summer'!D18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.381720812374338</v>
+        <v>10.243548731136904</v>
       </c>
       <c r="E18" s="1">
         <f>'[1]Pc, 2020, Summer'!E18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.381720812374338</v>
+        <v>10.243548731136904</v>
       </c>
       <c r="F18" s="1">
         <f>'[1]Pc, 2020, Summer'!F18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.73014083724294</v>
+        <v>10.557126753518645</v>
       </c>
       <c r="G18" s="1">
         <f>'[1]Pc, 2020, Summer'!G18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.962420853822008</v>
+        <v>10.76617876843981</v>
       </c>
       <c r="H18" s="1">
         <f>'[1]Pc, 2020, Summer'!H18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.911181135666165</v>
+        <v>14.32006302209955</v>
       </c>
       <c r="I18" s="1">
         <f>'[1]Pc, 2020, Summer'!I18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.117841293167313</v>
+        <v>16.306057163850582</v>
       </c>
       <c r="J18" s="1">
         <f>'[1]Pc, 2020, Summer'!J18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.698541334614983</v>
+        <v>16.828687201153489</v>
       </c>
       <c r="K18" s="1">
         <f>'[1]Pc, 2020, Summer'!K18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.18872122685104</v>
+        <v>15.469849104165936</v>
       </c>
       <c r="L18" s="1">
         <f>'[1]Pc, 2020, Summer'!L18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.653281260009177</v>
+        <v>15.887953134008258</v>
       </c>
       <c r="M18" s="1">
         <f>'[1]Pc, 2020, Summer'!M18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.976081425799858</v>
+        <v>17.978473283219873</v>
       </c>
       <c r="N18" s="1">
         <f>'[1]Pc, 2020, Summer'!N18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.859941417510324</v>
+        <v>17.873947275759296</v>
       </c>
       <c r="O18" s="1">
         <f>'[1]Pc, 2020, Summer'!O18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.279241376062654</v>
+        <v>17.351317238456389</v>
       </c>
       <c r="P18" s="1">
         <f>'[1]Pc, 2020, Summer'!P18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.466261318035915</v>
+        <v>16.619635186232323</v>
       </c>
       <c r="Q18" s="1">
         <f>'[1]Pc, 2020, Summer'!Q18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.304861235140574</v>
+        <v>15.574375111626518</v>
       </c>
       <c r="R18" s="1">
         <f>'[1]Pc, 2020, Summer'!R18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.885561276588245</v>
+        <v>16.097005148929423</v>
       </c>
       <c r="S18" s="1">
         <f>'[1]Pc, 2020, Summer'!S18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.001701284877779</v>
+        <v>16.201531156390001</v>
       </c>
       <c r="T18" s="1">
         <f>'[1]Pc, 2020, Summer'!T18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.001701284877779</v>
+        <v>16.201531156390001</v>
       </c>
       <c r="U18" s="1">
         <f>'[1]Pc, 2020, Summer'!U18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.18872122685104</v>
+        <v>15.469849104165936</v>
       </c>
       <c r="V18" s="1">
         <f>'[1]Pc, 2020, Summer'!V18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.814681342904517</v>
+        <v>16.933213208614067</v>
       </c>
       <c r="W18" s="1">
         <f>'[1]Pc, 2020, Summer'!W18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.233981301456847</v>
+        <v>16.41058317131116</v>
       </c>
       <c r="X18" s="1">
         <f>'[1]Pc, 2020, Summer'!X18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.214341085928961</v>
+        <v>13.692906977336065</v>
       </c>
       <c r="Y18" s="1">
         <f>'[1]Pc, 2020, Summer'!Y18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.05294100303362</v>
+        <v>12.64764690273026</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -23798,99 +23798,99 @@
       </c>
       <c r="B19" s="1">
         <f>'[1]Pc, 2020, Summer'!B19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.73014083724294</v>
+        <v>10.557126753518645</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]Pc, 2020, Summer'!C19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.684880762637132</v>
+        <v>9.6163926863734197</v>
       </c>
       <c r="D19" s="1">
         <f>'[1]Pc, 2020, Summer'!D19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1750606548731906</v>
+        <v>8.2575545893858724</v>
       </c>
       <c r="E19" s="1">
         <f>'[1]Pc, 2020, Summer'!E19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.104180721189461</v>
+        <v>9.0937626490705163</v>
       </c>
       <c r="F19" s="1">
         <f>'[1]Pc, 2020, Summer'!F19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.452600746058065</v>
+        <v>9.4073406714522587</v>
       </c>
       <c r="G19" s="1">
         <f>'[1]Pc, 2020, Summer'!G19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.14944079579527</v>
+        <v>10.034496716215743</v>
       </c>
       <c r="H19" s="1">
         <f>'[1]Pc, 2020, Summer'!H19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.214341085928961</v>
+        <v>13.692906977336065</v>
       </c>
       <c r="I19" s="1">
         <f>'[1]Pc, 2020, Summer'!I19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.769421268298711</v>
+        <v>15.992479141468841</v>
       </c>
       <c r="J19" s="1">
         <f>'[1]Pc, 2020, Summer'!J19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.814681342904517</v>
+        <v>16.933213208614067</v>
       </c>
       <c r="K19" s="1">
         <f>'[1]Pc, 2020, Summer'!K19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.466261318035915</v>
+        <v>16.619635186232323</v>
       </c>
       <c r="L19" s="1">
         <f>'[1]Pc, 2020, Summer'!L19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.60802118540337</v>
+        <v>14.947219066863035</v>
       </c>
       <c r="M19" s="1">
         <f>'[1]Pc, 2020, Summer'!M19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.814681342904517</v>
+        <v>16.933213208614067</v>
       </c>
       <c r="N19" s="1">
         <f>'[1]Pc, 2020, Summer'!N19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.350121309746381</v>
+        <v>16.515109178771745</v>
       </c>
       <c r="O19" s="1">
         <f>'[1]Pc, 2020, Summer'!O19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.001701284877779</v>
+        <v>16.201531156390001</v>
       </c>
       <c r="P19" s="1">
         <f>'[1]Pc, 2020, Summer'!P19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.214341085928961</v>
+        <v>13.692906977336065</v>
       </c>
       <c r="Q19" s="1">
         <f>'[1]Pc, 2020, Summer'!Q19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.749781052770825</v>
+        <v>13.274802947493743</v>
       </c>
       <c r="R19" s="1">
         <f>'[1]Pc, 2020, Summer'!R19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.517501036191756</v>
+        <v>13.065750932572582</v>
       </c>
       <c r="S19" s="1">
         <f>'[1]Pc, 2020, Summer'!S19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.401361027902224</v>
+        <v>12.961224925112001</v>
       </c>
       <c r="T19" s="1">
         <f>'[1]Pc, 2020, Summer'!T19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.169081011323154</v>
+        <v>12.75217291019084</v>
       </c>
       <c r="U19" s="1">
         <f>'[1]Pc, 2020, Summer'!U19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.678901119087097</v>
+        <v>14.111011007178389</v>
       </c>
       <c r="V19" s="1">
         <f>'[1]Pc, 2020, Summer'!V19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.795041127376631</v>
+        <v>14.215537014638969</v>
       </c>
       <c r="W19" s="1">
         <f>'[1]Pc, 2020, Summer'!W19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.840301201982438</v>
+        <v>15.156271081784196</v>
       </c>
       <c r="X19" s="1">
         <f>'[1]Pc, 2020, Summer'!X19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.330481094218495</v>
+        <v>13.797432984796645</v>
       </c>
       <c r="Y19" s="1">
         <f>'[1]Pc, 2020, Summer'!Y19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.123820936717349</v>
+        <v>11.811438843045616</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -23899,35 +23899,35 @@
       </c>
       <c r="B20" s="1">
         <f>'[1]Pc, 2020, Summer'!B20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="C20" s="1">
         <f>'[1]Pc, 2020, Summer'!C20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="D20" s="1">
         <f>'[1]Pc, 2020, Summer'!D20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="E20" s="1">
         <f>'[1]Pc, 2020, Summer'!E20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953407</v>
+        <v>0.10452600746058066</v>
       </c>
       <c r="F20" s="1">
         <f>'[1]Pc, 2020, Summer'!F20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="G20" s="1">
         <f>'[1]Pc, 2020, Summer'!G20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="H20" s="1">
         <f>'[1]Pc, 2020, Summer'!H20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="I20" s="1">
         <f>'[1]Pc, 2020, Summer'!I20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="J20" s="1">
         <f>'[1]Pc, 2020, Summer'!J20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23935,31 +23935,31 @@
       </c>
       <c r="K20" s="1">
         <f>'[1]Pc, 2020, Summer'!K20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="L20" s="1">
         <f>'[1]Pc, 2020, Summer'!L20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="M20" s="1">
         <f>'[1]Pc, 2020, Summer'!M20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="N20" s="1">
         <f>'[1]Pc, 2020, Summer'!N20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="O20" s="1">
         <f>'[1]Pc, 2020, Summer'!O20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="P20" s="1">
         <f>'[1]Pc, 2020, Summer'!P20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="Q20" s="1">
         <f>'[1]Pc, 2020, Summer'!Q20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="R20" s="1">
         <f>'[1]Pc, 2020, Summer'!R20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23971,27 +23971,27 @@
       </c>
       <c r="T20" s="1">
         <f>'[1]Pc, 2020, Summer'!T20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953407</v>
+        <v>0.10452600746058066</v>
       </c>
       <c r="U20" s="1">
         <f>'[1]Pc, 2020, Summer'!U20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953407</v>
+        <v>0.10452600746058066</v>
       </c>
       <c r="V20" s="1">
         <f>'[1]Pc, 2020, Summer'!V20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953407</v>
+        <v>0.10452600746058066</v>
       </c>
       <c r="W20" s="1">
         <f>'[1]Pc, 2020, Summer'!W20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953407</v>
+        <v>0.10452600746058066</v>
       </c>
       <c r="X20" s="1">
         <f>'[1]Pc, 2020, Summer'!X20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="Y20" s="1">
         <f>'[1]Pc, 2020, Summer'!Y20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -24000,99 +24000,99 @@
       </c>
       <c r="B21" s="1">
         <f>'[1]Pc, 2020, Summer'!B21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.698541334614983</v>
+        <v>16.828687201153489</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]Pc, 2020, Summer'!C21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.537141251719643</v>
+        <v>15.783427126547679</v>
       </c>
       <c r="D21" s="1">
         <f>'[1]Pc, 2020, Summer'!D21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.840301201982438</v>
+        <v>15.156271081784196</v>
       </c>
       <c r="E21" s="1">
         <f>'[1]Pc, 2020, Summer'!E21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.60802118540337</v>
+        <v>14.947219066863035</v>
       </c>
       <c r="F21" s="1">
         <f>'[1]Pc, 2020, Summer'!F21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.072581218561506</v>
+        <v>15.365323096705357</v>
       </c>
       <c r="G21" s="1">
         <f>'[1]Pc, 2020, Summer'!G21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.375741168824302</v>
+        <v>14.738167051941872</v>
       </c>
       <c r="H21" s="1">
         <f>'[1]Pc, 2020, Summer'!H21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.511521392641722</v>
+        <v>17.560369253377552</v>
       </c>
       <c r="I21" s="1">
         <f>'[1]Pc, 2020, Summer'!I21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.29888159159054</v>
+        <v>20.068993432431487</v>
       </c>
       <c r="J21" s="1">
         <f>'[1]Pc, 2020, Summer'!J21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.460281674485881</v>
+        <v>21.11425350703729</v>
       </c>
       <c r="K21" s="1">
         <f>'[1]Pc, 2020, Summer'!K21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.389401740802153</v>
+        <v>21.950461566721941</v>
       </c>
       <c r="L21" s="1">
         <f>'[1]Pc, 2020, Summer'!L21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.247641873434699</v>
+        <v>23.622877686091233</v>
       </c>
       <c r="M21" s="1">
         <f>'[1]Pc, 2020, Summer'!M21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.615702113831183</v>
+        <v>26.654131902448064</v>
       </c>
       <c r="N21" s="1">
         <f>'[1]Pc, 2020, Summer'!N21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.859941417510324</v>
+        <v>17.873947275759296</v>
       </c>
       <c r="O21" s="1">
         <f>'[1]Pc, 2020, Summer'!O21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.712201906592835</v>
+        <v>24.040981715933547</v>
       </c>
       <c r="P21" s="1">
         <f>'[1]Pc, 2020, Summer'!P21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.318521807118426</v>
+        <v>22.786669626406582</v>
       </c>
       <c r="Q21" s="1">
         <f>'[1]Pc, 2020, Summer'!Q21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.621681757381218</v>
+        <v>22.159513581643097</v>
       </c>
       <c r="R21" s="1">
         <f>'[1]Pc, 2020, Summer'!R21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.783081840276559</v>
+        <v>23.204773656248904</v>
       </c>
       <c r="S21" s="1">
         <f>'[1]Pc, 2020, Summer'!S21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.505541749091687</v>
+        <v>22.054987574182519</v>
       </c>
       <c r="T21" s="1">
         <f>'[1]Pc, 2020, Summer'!T21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.29888159159054</v>
+        <v>20.068993432431487</v>
       </c>
       <c r="U21" s="1">
         <f>'[1]Pc, 2020, Summer'!U21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.111861649617275</v>
+        <v>20.800675484655549</v>
       </c>
       <c r="V21" s="1">
         <f>'[1]Pc, 2020, Summer'!V21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.228001657906812</v>
+        <v>20.905201492116131</v>
       </c>
       <c r="W21" s="1">
         <f>'[1]Pc, 2020, Summer'!W21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.621681757381218</v>
+        <v>22.159513581643097</v>
       </c>
       <c r="X21" s="1">
         <f>'[1]Pc, 2020, Summer'!X21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.859941417510324</v>
+        <v>17.873947275759296</v>
       </c>
       <c r="Y21" s="1">
         <f>'[1]Pc, 2020, Summer'!Y21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.117841293167313</v>
+        <v>16.306057163850582</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -24101,99 +24101,99 @@
       </c>
       <c r="B22" s="1">
         <f>'[1]Pc, 2020, Summer'!B22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0196402155278856</v>
+        <v>2.7176761939750973</v>
       </c>
       <c r="C22" s="1">
         <f>'[1]Pc, 2020, Summer'!C22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="D22" s="1">
         <f>'[1]Pc, 2020, Summer'!D22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="E22" s="1">
         <f>'[1]Pc, 2020, Summer'!E22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="F22" s="1">
         <f>'[1]Pc, 2020, Summer'!F22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2775400911848747</v>
+        <v>1.1497860820663872</v>
       </c>
       <c r="G22" s="1">
         <f>'[1]Pc, 2020, Summer'!G22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2775400911848747</v>
+        <v>1.1497860820663872</v>
       </c>
       <c r="H22" s="1">
         <f>'[1]Pc, 2020, Summer'!H22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4133203150022942</v>
+        <v>3.9719882835020646</v>
       </c>
       <c r="I22" s="1">
         <f>'[1]Pc, 2020, Summer'!I22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2006805139511121</v>
+        <v>6.4806124625560004</v>
       </c>
       <c r="J22" s="1">
         <f>'[1]Pc, 2020, Summer'!J22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.2459405885569179</v>
+        <v>7.4213465297012258</v>
       </c>
       <c r="K22" s="1">
         <f>'[1]Pc, 2020, Summer'!K22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.2459405885569179</v>
+        <v>7.4213465297012258</v>
       </c>
       <c r="L22" s="1">
         <f>'[1]Pc, 2020, Summer'!L22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2006805139511121</v>
+        <v>6.4806124625560004</v>
       </c>
       <c r="M22" s="1">
         <f>'[1]Pc, 2020, Summer'!M22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0589206465836565</v>
+        <v>8.153028581925291</v>
       </c>
       <c r="N22" s="1">
         <f>'[1]Pc, 2020, Summer'!N22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4329605305301802</v>
+        <v>6.6896644774771623</v>
       </c>
       <c r="O22" s="1">
         <f>'[1]Pc, 2020, Summer'!O22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3168205222406453</v>
+        <v>6.5851384700165809</v>
       </c>
       <c r="P22" s="1">
         <f>'[1]Pc, 2020, Summer'!P22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3877004559243735</v>
+        <v>5.7489304103319361</v>
       </c>
       <c r="Q22" s="1">
         <f>'[1]Pc, 2020, Summer'!Q22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3877004559243735</v>
+        <v>5.7489304103319361</v>
       </c>
       <c r="R22" s="1">
         <f>'[1]Pc, 2020, Summer'!R22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0392804310557713</v>
+        <v>5.4353523879501946</v>
       </c>
       <c r="S22" s="1">
         <f>'[1]Pc, 2020, Summer'!S22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2715604476348394</v>
+        <v>5.6444044028713556</v>
       </c>
       <c r="T22" s="1">
         <f>'[1]Pc, 2020, Summer'!T22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0392804310557713</v>
+        <v>5.4353523879501946</v>
       </c>
       <c r="U22" s="1">
         <f>'[1]Pc, 2020, Summer'!U22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5038404642139067</v>
+        <v>5.8534564177925166</v>
       </c>
       <c r="V22" s="1">
         <f>'[1]Pc, 2020, Summer'!V22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6652405471092475</v>
+        <v>6.8987164923983224</v>
       </c>
       <c r="W22" s="1">
         <f>'[1]Pc, 2020, Summer'!W22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7813805553987825</v>
+        <v>7.0032424998589038</v>
       </c>
       <c r="X22" s="1">
         <f>'[1]Pc, 2020, Summer'!X22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1554204393453045</v>
+        <v>5.5398783954107742</v>
       </c>
       <c r="Y22" s="1">
         <f>'[1]Pc, 2020, Summer'!Y22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0649002901336919</v>
+        <v>3.6584102611203226</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -24202,99 +24202,99 @@
       </c>
       <c r="B23" s="1">
         <f>'[1]Pc, 2020, Summer'!B23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2263003730290327</v>
+        <v>4.7036703357261294</v>
       </c>
       <c r="C23" s="1">
         <f>'[1]Pc, 2020, Summer'!C23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2715604476348394</v>
+        <v>5.6444044028713556</v>
       </c>
       <c r="D23" s="1">
         <f>'[1]Pc, 2020, Summer'!D23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2715604476348394</v>
+        <v>5.6444044028713556</v>
       </c>
       <c r="E23" s="1">
         <f>'[1]Pc, 2020, Summer'!E23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2715604476348394</v>
+        <v>5.6444044028713556</v>
       </c>
       <c r="F23" s="1">
         <f>'[1]Pc, 2020, Summer'!F23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2715604476348394</v>
+        <v>5.6444044028713556</v>
       </c>
       <c r="G23" s="1">
         <f>'[1]Pc, 2020, Summer'!G23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1554204393453045</v>
+        <v>5.5398783954107742</v>
       </c>
       <c r="H23" s="1">
         <f>'[1]Pc, 2020, Summer'!H23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0845405056615771</v>
+        <v>6.3760864550954199</v>
       </c>
       <c r="I23" s="1">
         <f>'[1]Pc, 2020, Summer'!I23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0845405056615771</v>
+        <v>6.3760864550954199</v>
       </c>
       <c r="J23" s="1">
         <f>'[1]Pc, 2020, Summer'!J23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0845405056615771</v>
+        <v>6.3760864550954199</v>
       </c>
       <c r="K23" s="1">
         <f>'[1]Pc, 2020, Summer'!K23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0845405056615771</v>
+        <v>6.3760864550954199</v>
       </c>
       <c r="L23" s="1">
         <f>'[1]Pc, 2020, Summer'!L23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1298005802673838</v>
+        <v>7.3168205222406453</v>
       </c>
       <c r="M23" s="1">
         <f>'[1]Pc, 2020, Summer'!M23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1298005802673838</v>
+        <v>7.3168205222406453</v>
       </c>
       <c r="N23" s="1">
         <f>'[1]Pc, 2020, Summer'!N23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1298005802673838</v>
+        <v>7.3168205222406453</v>
       </c>
       <c r="O23" s="1">
         <f>'[1]Pc, 2020, Summer'!O23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1298005802673838</v>
+        <v>7.3168205222406453</v>
       </c>
       <c r="P23" s="1">
         <f>'[1]Pc, 2020, Summer'!P23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2006805139511121</v>
+        <v>6.4806124625560004</v>
       </c>
       <c r="Q23" s="1">
         <f>'[1]Pc, 2020, Summer'!Q23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2006805139511121</v>
+        <v>6.4806124625560004</v>
       </c>
       <c r="R23" s="1">
         <f>'[1]Pc, 2020, Summer'!R23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2006805139511121</v>
+        <v>6.4806124625560004</v>
       </c>
       <c r="S23" s="1">
         <f>'[1]Pc, 2020, Summer'!S23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3168205222406453</v>
+        <v>6.5851384700165809</v>
       </c>
       <c r="T23" s="1">
         <f>'[1]Pc, 2020, Summer'!T23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3168205222406453</v>
+        <v>6.5851384700165809</v>
       </c>
       <c r="U23" s="1">
         <f>'[1]Pc, 2020, Summer'!U23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3168205222406453</v>
+        <v>6.5851384700165809</v>
       </c>
       <c r="V23" s="1">
         <f>'[1]Pc, 2020, Summer'!V23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3168205222406453</v>
+        <v>6.5851384700165809</v>
       </c>
       <c r="W23" s="1">
         <f>'[1]Pc, 2020, Summer'!W23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4329605305301802</v>
+        <v>6.6896644774771623</v>
       </c>
       <c r="X23" s="1">
         <f>'[1]Pc, 2020, Summer'!X23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4329605305301802</v>
+        <v>6.6896644774771623</v>
       </c>
       <c r="Y23" s="1">
         <f>'[1]Pc, 2020, Summer'!Y23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3877004559243735</v>
+        <v>5.7489304103319361</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -24303,99 +24303,99 @@
       </c>
       <c r="B24" s="1">
         <f>'[1]Pc, 2020, Summer'!B24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.181040298423226</v>
+        <v>-3.7629362685809036</v>
       </c>
       <c r="C24" s="1">
         <f>'[1]Pc, 2020, Summer'!C24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-22.763441624748676</v>
+        <v>-20.487097462273809</v>
       </c>
       <c r="D24" s="1">
         <f>'[1]Pc, 2020, Summer'!D24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-26.247641873434699</v>
+        <v>-23.622877686091233</v>
       </c>
       <c r="E24" s="1">
         <f>'[1]Pc, 2020, Summer'!E24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-28.57044203922538</v>
+        <v>-25.713397835302843</v>
       </c>
       <c r="F24" s="1">
         <f>'[1]Pc, 2020, Summer'!F24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.956441210271972</v>
+        <v>-15.260797089244775</v>
       </c>
       <c r="G24" s="1">
         <f>'[1]Pc, 2020, Summer'!G24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-30.893242205016062</v>
+        <v>-27.803917984514456</v>
       </c>
       <c r="H24" s="1">
         <f>'[1]Pc, 2020, Summer'!H24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.9880407128999291</v>
+        <v>-8.9892366416099367</v>
       </c>
       <c r="I24" s="1">
         <f>'[1]Pc, 2020, Summer'!I24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-13.47224096158595</v>
+        <v>-12.125016865427355</v>
       </c>
       <c r="J24" s="1">
         <f>'[1]Pc, 2020, Summer'!J24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.956441210271972</v>
+        <v>-15.260797089244775</v>
       </c>
       <c r="K24" s="1">
         <f>'[1]Pc, 2020, Summer'!K24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4329605305301802</v>
+        <v>6.6896644774771623</v>
       </c>
       <c r="L24" s="1">
         <f>'[1]Pc, 2020, Summer'!L24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.078560862111543</v>
+        <v>10.870704775900389</v>
       </c>
       <c r="M24" s="1">
         <f>'[1]Pc, 2020, Summer'!M24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.208361442378923</v>
+        <v>18.187525298141033</v>
       </c>
       <c r="N24" s="1">
         <f>'[1]Pc, 2020, Summer'!N24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>51.566163680553117</v>
+        <v>46.409547312497807</v>
       </c>
       <c r="O24" s="1">
         <f>'[1]Pc, 2020, Summer'!O24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>82.923965918727319</v>
+        <v>74.631569326854589</v>
       </c>
       <c r="P24" s="1">
         <f>'[1]Pc, 2020, Summer'!P24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>79.439765670041297</v>
+        <v>71.495789103037183</v>
       </c>
       <c r="Q24" s="1">
         <f>'[1]Pc, 2020, Summer'!Q24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>73.632765255564593</v>
+        <v>66.269488730008135</v>
       </c>
       <c r="R24" s="1">
         <f>'[1]Pc, 2020, Summer'!R24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>68.987164923983229</v>
+        <v>62.088448431584908</v>
       </c>
       <c r="S24" s="1">
         <f>'[1]Pc, 2020, Summer'!S24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>66.664364758192548</v>
+        <v>59.997928282373287</v>
       </c>
       <c r="T24" s="1">
         <f>'[1]Pc, 2020, Summer'!T24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.822362271332331</v>
+        <v>28.6401260441991</v>
       </c>
       <c r="U24" s="1">
         <f>'[1]Pc, 2020, Summer'!U24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.790762768704376</v>
+        <v>34.911686491833933</v>
       </c>
       <c r="V24" s="1">
         <f>'[1]Pc, 2020, Summer'!V24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.018764426611185</v>
+        <v>55.816887983950068</v>
       </c>
       <c r="W24" s="1">
         <f>'[1]Pc, 2020, Summer'!W24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>73.632765255564593</v>
+        <v>66.269488730008135</v>
       </c>
       <c r="X24" s="1">
         <f>'[1]Pc, 2020, Summer'!X24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>73.632765255564593</v>
+        <v>66.269488730008135</v>
       </c>
       <c r="Y24" s="1">
         <f>'[1]Pc, 2020, Summer'!Y24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>80.601165752936637</v>
+        <v>72.541049177642975</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -24404,99 +24404,99 @@
       </c>
       <c r="B25" s="1">
         <f>'[1]Pc, 2020, Summer'!B25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.48760281844158</v>
+        <v>35.538842536597421</v>
       </c>
       <c r="C25" s="1">
         <f>'[1]Pc, 2020, Summer'!C25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.048662644361357</v>
+        <v>33.343796379925223</v>
       </c>
       <c r="D25" s="1">
         <f>'[1]Pc, 2020, Summer'!D25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.609722470281156</v>
+        <v>31.148750223253039</v>
       </c>
       <c r="E25" s="1">
         <f>'[1]Pc, 2020, Summer'!E25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.164802652650891</v>
+        <v>33.448322387385808</v>
       </c>
       <c r="F25" s="1">
         <f>'[1]Pc, 2020, Summer'!F25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.983762354227665</v>
+        <v>29.6853861188049</v>
       </c>
       <c r="G25" s="1">
         <f>'[1]Pc, 2020, Summer'!G25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.383422097252112</v>
+        <v>26.445079887526905</v>
       </c>
       <c r="H25" s="1">
         <f>'[1]Pc, 2020, Summer'!H25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>40.300582876468319</v>
+        <v>36.270524588821488</v>
       </c>
       <c r="I25" s="1">
         <f>'[1]Pc, 2020, Summer'!I25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>45.294603232918284</v>
+        <v>40.765142909626455</v>
       </c>
       <c r="J25" s="1">
         <f>'[1]Pc, 2020, Summer'!J25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.837724128187958</v>
+        <v>52.053951715369166</v>
       </c>
       <c r="K25" s="1">
         <f>'[1]Pc, 2020, Summer'!K25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.837724128187965</v>
+        <v>52.053951715369173</v>
       </c>
       <c r="L25" s="1">
         <f>'[1]Pc, 2020, Summer'!L25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.87700455924373</v>
+        <v>57.489304103319355</v>
       </c>
       <c r="M25" s="1">
         <f>'[1]Pc, 2020, Summer'!M25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>65.502964675297207</v>
+        <v>58.952668207767488</v>
       </c>
       <c r="N25" s="1">
         <f>'[1]Pc, 2020, Summer'!N25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>66.083664716744877</v>
+        <v>59.475298245070391</v>
       </c>
       <c r="O25" s="1">
         <f>'[1]Pc, 2020, Summer'!O25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>78.39450559543549</v>
+        <v>70.555055035891939</v>
       </c>
       <c r="P25" s="1">
         <f>'[1]Pc, 2020, Summer'!P25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>80.252745728068021</v>
+        <v>72.227471155261227</v>
       </c>
       <c r="Q25" s="1">
         <f>'[1]Pc, 2020, Summer'!Q25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>72.935925205827388</v>
+        <v>65.642332685244639</v>
       </c>
       <c r="R25" s="1">
         <f>'[1]Pc, 2020, Summer'!R25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>69.219444940562298</v>
+        <v>62.297500446506071</v>
       </c>
       <c r="S25" s="1">
         <f>'[1]Pc, 2020, Summer'!S25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.412444526085608</v>
+        <v>57.071200073477044</v>
       </c>
       <c r="T25" s="1">
         <f>'[1]Pc, 2020, Summer'!T25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.60544411160889</v>
+        <v>51.844899700447996</v>
       </c>
       <c r="U25" s="1">
         <f>'[1]Pc, 2020, Summer'!U25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.064024501216991</v>
+        <v>56.757622051095289</v>
       </c>
       <c r="V25" s="1">
         <f>'[1]Pc, 2020, Summer'!V25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>51.566163680553132</v>
+        <v>46.409547312497821</v>
       </c>
       <c r="W25" s="1">
         <f>'[1]Pc, 2020, Summer'!W25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>53.888963846343792</v>
+        <v>48.500067461709413</v>
       </c>
       <c r="X25" s="1">
         <f>'[1]Pc, 2020, Summer'!X25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>65.154544650428605</v>
+        <v>58.639090185385747</v>
       </c>
       <c r="Y25" s="1">
         <f>'[1]Pc, 2020, Summer'!Y25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.49528374686939</v>
+        <v>47.245755372182451</v>
       </c>
     </row>
   </sheetData>
@@ -34661,75 +34661,75 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1101603647394986</v>
+        <v>4.5991443282655489</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860224</v>
+        <v>0.31357802238174204</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720448</v>
+        <v>0.62715604476348408</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953406</v>
+        <v>1.0452600746058065</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953406</v>
+        <v>1.0452600746058065</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8326202735546238</v>
+        <v>3.4493582461991612</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673834</v>
+        <v>0.73168205222406457</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7421001243430108</v>
+        <v>1.5678901119087099</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953406</v>
+        <v>1.0452600746058065</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1357802238174197</v>
+        <v>2.8222022014356778</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673834</v>
+        <v>0.73168205222406457</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34737,15 +34737,15 @@
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34762,99 +34762,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953406</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3228001657906812</v>
+        <v>-2.090520149211613</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2775400911848747</v>
+        <v>1.1497860820663872</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673834</v>
+        <v>0.73168205222406457</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953406</v>
+        <v>1.0452600746058065</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.090520149211613</v>
+        <v>1.8814681342904518</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -34863,79 +34863,79 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.2519202321069534</v>
+        <v>-2.9267282088962583</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.1357802238174197</v>
+        <v>-2.8222022014356778</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.2971803067127601</v>
+        <v>-3.8674622760414836</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.2971803067127601</v>
+        <v>-3.8674622760414836</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.6456003315813623</v>
+        <v>-4.181040298423226</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.8326202735546238</v>
+        <v>-3.4493582461991612</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9035002072383516</v>
+        <v>2.6131501865145164</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0196402155278856</v>
+        <v>2.7176761939750973</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4389401740802152</v>
+        <v>2.1950461566721939</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0649002901336919</v>
+        <v>3.6584102611203226</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.600340256975556</v>
+        <v>3.2403062312780002</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7164802652650901</v>
+        <v>3.3448322387385812</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4389401740802152</v>
+        <v>-2.1950461566721939</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522578</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34943,19 +34943,19 @@
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2066601575011471</v>
+        <v>-1.9859941417510323</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.0196402155278856</v>
+        <v>-2.7176761939750973</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -34964,99 +34964,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720448</v>
+        <v>-0.62715604476348408</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953408</v>
+        <v>-1.0452600746058067</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9743801409220789</v>
+        <v>-1.7769421268298711</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9743801409220789</v>
+        <v>-1.7769421268298711</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8582401326325448</v>
+        <v>-1.6724161193692904</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.4133203150022942</v>
+        <v>-3.9719882835020646</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3228001657906807</v>
+        <v>2.090520149211613</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8975205636883157</v>
+        <v>7.1077685073194843</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3168205222406453</v>
+        <v>6.5851384700165809</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9880407128999291</v>
+        <v>8.9892366416099367</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.684880762637132</v>
+        <v>9.6163926863734197</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5234806797417928</v>
+        <v>8.571132611767613</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6199804725034408</v>
+        <v>5.9579824252530971</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.574720397897635</v>
+        <v>5.0172483581078717</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7617403398708964</v>
+        <v>4.2855663058838065</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.690860406187169</v>
+        <v>5.1217743655684522</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4842002486860211</v>
+        <v>3.1357802238174193</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8326202735546242</v>
+        <v>3.4493582461991616</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1810402984232269</v>
+        <v>3.762936268580904</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1357802238174197</v>
+        <v>2.8222022014356778</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3936800994744083</v>
+        <v>1.2543120895269677</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -35065,99 +35065,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2775400911848747</v>
+        <v>1.1497860820663872</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522578</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906813</v>
+        <v>-0.20905201492116132</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673834</v>
+        <v>0.73168205222406457</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3680602403964874</v>
+        <v>3.0312542163568388</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1357802238174197</v>
+        <v>2.8222022014356778</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0196402155278856</v>
+        <v>2.7176761939750973</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.090520149211613</v>
+        <v>1.8814681342904516</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220791</v>
+        <v>1.7769421268298713</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220791</v>
+        <v>1.7769421268298713</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.090520149211613</v>
+        <v>1.8814681342904516</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8582401326325451</v>
+        <v>1.6724161193692906</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3228001657906812</v>
+        <v>2.090520149211613</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220791</v>
+        <v>1.7769421268298713</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -35166,99 +35166,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>116.72070833098172</v>
+        <v>105.04863749788356</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>117.41754838071893</v>
+        <v>105.67579354264703</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>118.81122848019334</v>
+        <v>106.930105632174</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>119.74034854650961</v>
+        <v>107.76631369185864</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>119.97262856308868</v>
+        <v>107.97536570677981</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>120.20490857966774</v>
+        <v>108.18441772170098</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>117.53368838900847</v>
+        <v>105.78031955010762</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>113.35264809058523</v>
+        <v>102.01738328152672</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>111.37826794966317</v>
+        <v>100.24044115469685</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>108.01020770926668</v>
+        <v>97.209186938340011</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>108.82318776729342</v>
+        <v>97.94086899056407</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>107.54564767610853</v>
+        <v>96.791082908497685</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>108.82318776729342</v>
+        <v>97.94086899056407</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>108.59090775071435</v>
+        <v>97.731816975642914</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>109.98458785018876</v>
+        <v>98.986129065169877</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>112.07510799940036</v>
+        <v>100.86759719946033</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>112.30738801597944</v>
+        <v>101.07664921438149</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>111.72668797453177</v>
+        <v>100.55401917707859</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>112.53966803255851</v>
+        <v>101.28570122930266</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>111.61054796624222</v>
+        <v>100.44949316961799</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>113.46878809887478</v>
+        <v>102.12190928898731</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>112.19124800768989</v>
+        <v>100.97212320692091</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>112.65580804084803</v>
+        <v>101.39022723676322</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>113.12036807400618</v>
+        <v>101.80833126660556</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -35267,99 +35267,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.015361856855627</v>
+        <v>23.413825671170066</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.769421268298711</v>
+        <v>15.992479141468841</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.375741168824302</v>
+        <v>14.738167051941872</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.537141251719643</v>
+        <v>15.783427126547679</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.950461566721934</v>
+        <v>19.755415410049739</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.369761525274264</v>
+        <v>19.232785372746839</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.434661815407956</v>
+        <v>22.891195633867163</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.950461566721934</v>
+        <v>19.755415410049739</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.789061483826593</v>
+        <v>18.710155335443936</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.318521807118426</v>
+        <v>22.786669626406582</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.873601989488172</v>
+        <v>25.086241790539358</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.828341914882369</v>
+        <v>24.145507723394132</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.964122138699789</v>
+        <v>26.967709924829812</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.009382213305592</v>
+        <v>27.908443991975034</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.847982130410252</v>
+        <v>26.863183917369227</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.609722470281149</v>
+        <v>31.148750223253035</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.93252263607183</v>
+        <v>33.239270372464645</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.139182793572978</v>
+        <v>35.225264514215681</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.538842536597421</v>
+        <v>31.984958282937683</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.003402569755558</v>
+        <v>32.403062312780001</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.654982544886956</v>
+        <v>32.089484290398261</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.893242205016062</v>
+        <v>27.803917984514456</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.422702528307887</v>
+        <v>31.880432275477098</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.790762768704376</v>
+        <v>34.911686491833933</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -35368,99 +35368,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.452600746058065</v>
+        <v>-9.4073406714522587</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.801020770926668</v>
+        <v>-9.7209186938340011</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.5687407543476</v>
+        <v>-9.5118666789128383</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.801020770926668</v>
+        <v>-9.7209186938340011</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.684880762637132</v>
+        <v>-9.6163926863734197</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-12.078560862111543</v>
+        <v>-10.870704775900389</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.104180721189461</v>
+        <v>-9.0937626490705163</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.7164802652650901</v>
+        <v>-3.3448322387385812</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.7873601989488175</v>
+        <v>-2.5086241790539359</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9743801409220791</v>
+        <v>-1.7769421268298713</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220791</v>
+        <v>1.7769421268298713</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8582401326325451</v>
+        <v>1.6724161193692906</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813615</v>
+        <v>-0.41810402984232253</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.4842002486860215</v>
+        <v>-3.1357802238174197</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2066601575011471</v>
+        <v>-1.9859941417510323</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3680602403964874</v>
+        <v>-3.0312542163568388</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.1101603647394986</v>
+        <v>-4.5991443282655489</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.4842002486860215</v>
+        <v>-3.1357802238174197</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.574720397897635</v>
+        <v>-5.0172483581078717</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.7164802652650901</v>
+        <v>-3.3448322387385812</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.1554204393453045</v>
+        <v>-5.5398783954107742</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.968400497372043</v>
+        <v>-6.2715604476348394</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -35469,99 +35469,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-39.48760281844158</v>
+        <v>-35.538842536597421</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-46.456003315813625</v>
+        <v>-41.810402984232262</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-48.778803481604307</v>
+        <v>-43.900923133443882</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-51.101603647394988</v>
+        <v>-45.991443282655489</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-48.778803481604307</v>
+        <v>-43.900923133443882</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-72.006805139511115</v>
+        <v>-64.806124625560003</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-54.585803896081011</v>
+        <v>-49.127223506472909</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-27.873601989488172</v>
+        <v>-25.086241790539358</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.1298005802673838</v>
+        <v>-7.3168205222406453</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.4842002486860215</v>
+        <v>-3.1357802238174197</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953406</v>
+        <v>1.0452600746058065</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953406</v>
+        <v>1.0452600746058065</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.421001243430108</v>
+        <v>15.678901119087097</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.259601160534768</v>
+        <v>14.633641044481291</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.259601160534768</v>
+        <v>14.633641044481291</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.968400497372043</v>
+        <v>-6.2715604476348394</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953406</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.968400497372043</v>
+        <v>-6.2715604476348394</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-19.74380140922079</v>
+        <v>-17.769421268298711</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-18.582401326325449</v>
+        <v>-16.724161193692904</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17.421001243430108</v>
+        <v>-15.678901119087097</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-12.775400911848747</v>
+        <v>-11.497860820663872</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-19.74380140922079</v>
+        <v>-17.769421268298711</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-30.196402155278854</v>
+        <v>-27.176761939750971</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -35570,99 +35570,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.7105006217150542</v>
+        <v>-7.8394505595435486</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.4782206051359861</v>
+        <v>-7.6303985446223876</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.4782206051359861</v>
+        <v>-7.6303985446223876</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.1298005802673838</v>
+        <v>-7.3168205222406453</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.2459405885569179</v>
+        <v>-7.4213465297012258</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8975205636883157</v>
+        <v>-7.1077685073194843</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.2459405885569179</v>
+        <v>-7.4213465297012258</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2006805139511121</v>
+        <v>-6.4806124625560004</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.4329605305301802</v>
+        <v>-6.6896644774771623</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.4782206051359861</v>
+        <v>-7.6303985446223876</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.362080596846452</v>
+        <v>-7.5258725371618072</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5491005388197134</v>
+        <v>-6.7941904849377428</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3877004559243735</v>
+        <v>-5.7489304103319361</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6199804725034417</v>
+        <v>-5.9579824252530971</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.7105006217150542</v>
+        <v>-7.8394505595435486</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.968400497372043</v>
+        <v>-6.2715604476348394</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5491005388197134</v>
+        <v>-6.7941904849377428</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.968400497372043</v>
+        <v>-6.2715604476348394</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.362080596846452</v>
+        <v>-7.5258725371618072</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.0845405056615771</v>
+        <v>-6.3760864550954199</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.1298005802673838</v>
+        <v>-7.3168205222406453</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.7361204807929749</v>
+        <v>-6.0625084327136776</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0136605719778498</v>
+        <v>7.2122945147800657</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5491005388197134</v>
+        <v>-6.7941904849377428</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -35671,99 +35671,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.81298005802673834</v>
+        <v>-0.73168205222406457</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522578</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522578</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.81298005802673834</v>
+        <v>-0.73168205222406457</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953406</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8582401326325451</v>
+        <v>1.6724161193692906</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4133203150022942</v>
+        <v>3.9719882835020646</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1101603647394986</v>
+        <v>4.5991443282655489</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5294603232918282</v>
+        <v>4.0765142909626455</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6456003315813614</v>
+        <v>4.1810402984232251</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2715604476348394</v>
+        <v>5.6444044028713556</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9231404227662363</v>
+        <v>5.3308263804896132</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8070004144767031</v>
+        <v>5.2263003730290327</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9487602818441583</v>
+        <v>3.5538842536597426</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1357802238174197</v>
+        <v>2.8222022014356778</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0196402155278852</v>
+        <v>2.7176761939750969</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220791</v>
+        <v>1.7769421268298713</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9035002072383516</v>
+        <v>2.6131501865145164</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953408</v>
+        <v>1.0452600746058067</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1161400082895339</v>
+        <v>-0.10452600746058052</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -35772,43 +35772,43 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2775400911848744</v>
+        <v>-1.149786082066387</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3936800994744087</v>
+        <v>-1.2543120895269679</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2775400911848747</v>
+        <v>-1.1497860820663872</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906808</v>
+        <v>-0.20905201492116127</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953416</v>
+        <v>0.10452600746058074</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -35816,7 +35816,7 @@
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906819</v>
+        <v>0.20905201492116141</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -35828,43 +35828,43 @@
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953404</v>
+        <v>0.10452600746058063</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720448</v>
+        <v>-0.62715604476348408</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720448</v>
+        <v>-0.62715604476348408</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.81298005802673834</v>
+        <v>-0.73168205222406457</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953404</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953404</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953404</v>
+        <v>-1.0452600746058065</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -35873,99 +35873,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9743801409220789</v>
+        <v>-1.7769421268298711</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9743801409220789</v>
+        <v>-1.7769421268298711</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2066601575011471</v>
+        <v>-1.9859941417510323</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8582401326325451</v>
+        <v>-1.6724161193692906</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2775400911848747</v>
+        <v>-1.1497860820663872</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8582401326325451</v>
+        <v>-1.6724161193692906</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8582401326325451</v>
+        <v>-1.6724161193692906</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3936800994744087</v>
+        <v>-1.2543120895269679</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953406</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3936800994744087</v>
+        <v>-1.2543120895269679</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6259601160534767</v>
+        <v>-1.4633641044481291</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2775400911848747</v>
+        <v>-1.1497860820663872</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6259601160534767</v>
+        <v>-1.4633641044481291</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2775400911848747</v>
+        <v>-1.1497860820663872</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6259601160534767</v>
+        <v>-1.4633641044481291</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -35974,99 +35974,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953406</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906813</v>
+        <v>-0.20905201492116132</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906813</v>
+        <v>-0.20905201492116132</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906813</v>
+        <v>-0.20905201492116132</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -36075,35 +36075,35 @@
       </c>
       <c r="B16" s="1">
         <f>'[1]Qc, 2020, Summer'!B16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="C16" s="1">
         <f>'[1]Qc, 2020, Summer'!C16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8582401326325451</v>
+        <v>-1.6724161193692906</v>
       </c>
       <c r="D16" s="1">
         <f>'[1]Qc, 2020, Summer'!D16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="E16" s="1">
         <f>'[1]Qc, 2020, Summer'!E16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6259601160534767</v>
+        <v>-1.4633641044481291</v>
       </c>
       <c r="F16" s="1">
         <f>'[1]Qc, 2020, Summer'!F16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
       <c r="G16" s="1">
         <f>'[1]Qc, 2020, Summer'!G16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9743801409220789</v>
+        <v>-1.7769421268298711</v>
       </c>
       <c r="H16" s="1">
         <f>'[1]Qc, 2020, Summer'!H16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="I16" s="1">
         <f>'[1]Qc, 2020, Summer'!I16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.81298005802673834</v>
+        <v>-0.73168205222406457</v>
       </c>
       <c r="J16" s="1">
         <f>'[1]Qc, 2020, Summer'!J16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36119,7 +36119,7 @@
       </c>
       <c r="M16" s="1">
         <f>'[1]Qc, 2020, Summer'!M16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
       <c r="N16" s="1">
         <f>'[1]Qc, 2020, Summer'!N16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36127,11 +36127,11 @@
       </c>
       <c r="O16" s="1">
         <f>'[1]Qc, 2020, Summer'!O16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="P16" s="1">
         <f>'[1]Qc, 2020, Summer'!P16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="Q16" s="1">
         <f>'[1]Qc, 2020, Summer'!Q16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36139,35 +36139,35 @@
       </c>
       <c r="R16" s="1">
         <f>'[1]Qc, 2020, Summer'!R16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="S16" s="1">
         <f>'[1]Qc, 2020, Summer'!S16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="T16" s="1">
         <f>'[1]Qc, 2020, Summer'!T16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="U16" s="1">
         <f>'[1]Qc, 2020, Summer'!U16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="V16" s="1">
         <f>'[1]Qc, 2020, Summer'!V16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="W16" s="1">
         <f>'[1]Qc, 2020, Summer'!W16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="X16" s="1">
         <f>'[1]Qc, 2020, Summer'!X16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="Y16" s="1">
         <f>'[1]Qc, 2020, Summer'!Y16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3936800994744087</v>
+        <v>-1.2543120895269679</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -36176,99 +36176,99 @@
       </c>
       <c r="B17" s="1">
         <f>'[1]Qc, 2020, Summer'!B17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="C17" s="1">
         <f>'[1]Qc, 2020, Summer'!C17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="D17" s="1">
         <f>'[1]Qc, 2020, Summer'!D17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953406</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="E17" s="1">
         <f>'[1]Qc, 2020, Summer'!E17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953406</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="F17" s="1">
         <f>'[1]Qc, 2020, Summer'!F17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6259601160534769</v>
+        <v>-1.4633641044481294</v>
       </c>
       <c r="G17" s="1">
         <f>'[1]Qc, 2020, Summer'!G17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6259601160534769</v>
+        <v>-1.4633641044481294</v>
       </c>
       <c r="H17" s="1">
         <f>'[1]Qc, 2020, Summer'!H17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="I17" s="1">
         <f>'[1]Qc, 2020, Summer'!I17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="J17" s="1">
         <f>'[1]Qc, 2020, Summer'!J17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9487602818441583</v>
+        <v>3.5538842536597426</v>
       </c>
       <c r="K17" s="1">
         <f>'[1]Qc, 2020, Summer'!K17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6456003315813623</v>
+        <v>4.181040298423226</v>
       </c>
       <c r="L17" s="1">
         <f>'[1]Qc, 2020, Summer'!L17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7164802652650901</v>
+        <v>3.3448322387385812</v>
       </c>
       <c r="M17" s="1">
         <f>'[1]Qc, 2020, Summer'!M17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.690860406187169</v>
+        <v>5.1217743655684522</v>
       </c>
       <c r="N17" s="1">
         <f>'[1]Qc, 2020, Summer'!N17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4585803896081009</v>
+        <v>4.9127223506472912</v>
       </c>
       <c r="O17" s="1">
         <f>'[1]Qc, 2020, Summer'!O17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.690860406187169</v>
+        <v>5.1217743655684522</v>
       </c>
       <c r="P17" s="1">
         <f>'[1]Qc, 2020, Summer'!P17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1101603647394986</v>
+        <v>4.5991443282655489</v>
       </c>
       <c r="Q17" s="1">
         <f>'[1]Qc, 2020, Summer'!Q17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9487602818441583</v>
+        <v>3.5538842536597426</v>
       </c>
       <c r="R17" s="1">
         <f>'[1]Qc, 2020, Summer'!R17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6003402569755556</v>
+        <v>3.2403062312779998</v>
       </c>
       <c r="S17" s="1">
         <f>'[1]Qc, 2020, Summer'!S17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9487602818441583</v>
+        <v>3.5538842536597426</v>
       </c>
       <c r="T17" s="1">
         <f>'[1]Qc, 2020, Summer'!T17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2519202321069538</v>
+        <v>2.9267282088962587</v>
       </c>
       <c r="U17" s="1">
         <f>'[1]Qc, 2020, Summer'!U17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7164802652650901</v>
+        <v>3.3448322387385812</v>
       </c>
       <c r="V17" s="1">
         <f>'[1]Qc, 2020, Summer'!V17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9035002072383516</v>
+        <v>2.6131501865145164</v>
       </c>
       <c r="W17" s="1">
         <f>'[1]Qc, 2020, Summer'!W17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0196402155278856</v>
+        <v>2.7176761939750973</v>
       </c>
       <c r="X17" s="1">
         <f>'[1]Qc, 2020, Summer'!X17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3936800994744087</v>
+        <v>1.2543120895269679</v>
       </c>
       <c r="Y17" s="1">
         <f>'[1]Qc, 2020, Summer'!Y17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -36277,35 +36277,35 @@
       </c>
       <c r="B18" s="1">
         <f>'[1]Qc, 2020, Summer'!B18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]Qc, 2020, Summer'!C18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.090520149211613</v>
+        <v>-1.8814681342904518</v>
       </c>
       <c r="D18" s="1">
         <f>'[1]Qc, 2020, Summer'!D18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4389401740802152</v>
+        <v>-2.1950461566721939</v>
       </c>
       <c r="E18" s="1">
         <f>'[1]Qc, 2020, Summer'!E18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4389401740802152</v>
+        <v>-2.1950461566721939</v>
       </c>
       <c r="F18" s="1">
         <f>'[1]Qc, 2020, Summer'!F18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5550801823697493</v>
+        <v>-2.2995721641327744</v>
       </c>
       <c r="G18" s="1">
         <f>'[1]Qc, 2020, Summer'!G18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5550801823697493</v>
+        <v>-2.2995721641327744</v>
       </c>
       <c r="H18" s="1">
         <f>'[1]Qc, 2020, Summer'!H18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="I18" s="1">
         <f>'[1]Qc, 2020, Summer'!I18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456003315813627</v>
+        <v>-0.41810402984232264</v>
       </c>
       <c r="J18" s="1">
         <f>'[1]Qc, 2020, Summer'!J18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36313,19 +36313,19 @@
       </c>
       <c r="K18" s="1">
         <f>'[1]Qc, 2020, Summer'!K18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="L18" s="1">
         <f>'[1]Qc, 2020, Summer'!L18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="M18" s="1">
         <f>'[1]Qc, 2020, Summer'!M18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="N18" s="1">
         <f>'[1]Qc, 2020, Summer'!N18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23228001657906813</v>
+        <v>0.20905201492116132</v>
       </c>
       <c r="O18" s="1">
         <f>'[1]Qc, 2020, Summer'!O18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36333,19 +36333,19 @@
       </c>
       <c r="P18" s="1">
         <f>'[1]Qc, 2020, Summer'!P18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
       <c r="Q18" s="1">
         <f>'[1]Qc, 2020, Summer'!Q18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="R18" s="1">
         <f>'[1]Qc, 2020, Summer'!R18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="S18" s="1">
         <f>'[1]Qc, 2020, Summer'!S18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11614000828953407</v>
+        <v>0.10452600746058066</v>
       </c>
       <c r="T18" s="1">
         <f>'[1]Qc, 2020, Summer'!T18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36353,23 +36353,23 @@
       </c>
       <c r="U18" s="1">
         <f>'[1]Qc, 2020, Summer'!U18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="V18" s="1">
         <f>'[1]Qc, 2020, Summer'!V18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="W18" s="1">
         <f>'[1]Qc, 2020, Summer'!W18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="X18" s="1">
         <f>'[1]Qc, 2020, Summer'!X18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6259601160534767</v>
+        <v>-1.4633641044481291</v>
       </c>
       <c r="Y18" s="1">
         <f>'[1]Qc, 2020, Summer'!Y18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7421001243430108</v>
+        <v>-1.5678901119087099</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -36378,99 +36378,99 @@
       </c>
       <c r="B19" s="1">
         <f>'[1]Qc, 2020, Summer'!B19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]Qc, 2020, Summer'!C19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3936800994744087</v>
+        <v>-1.2543120895269679</v>
       </c>
       <c r="D19" s="1">
         <f>'[1]Qc, 2020, Summer'!D19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="E19" s="1">
         <f>'[1]Qc, 2020, Summer'!E19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2775400911848747</v>
+        <v>-1.1497860820663872</v>
       </c>
       <c r="F19" s="1">
         <f>'[1]Qc, 2020, Summer'!F19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1614000828953406</v>
+        <v>-1.0452600746058065</v>
       </c>
       <c r="G19" s="1">
         <f>'[1]Qc, 2020, Summer'!G19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="H19" s="1">
         <f>'[1]Qc, 2020, Summer'!H19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906813</v>
+        <v>-0.20905201492116132</v>
       </c>
       <c r="I19" s="1">
         <f>'[1]Qc, 2020, Summer'!I19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7421001243430108</v>
+        <v>1.5678901119087099</v>
       </c>
       <c r="J19" s="1">
         <f>'[1]Qc, 2020, Summer'!J19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7421001243430108</v>
+        <v>1.5678901119087099</v>
       </c>
       <c r="K19" s="1">
         <f>'[1]Qc, 2020, Summer'!K19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.090520149211613</v>
+        <v>1.8814681342904518</v>
       </c>
       <c r="L19" s="1">
         <f>'[1]Qc, 2020, Summer'!L19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534767</v>
+        <v>1.4633641044481291</v>
       </c>
       <c r="M19" s="1">
         <f>'[1]Qc, 2020, Summer'!M19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3228001657906812</v>
+        <v>2.090520149211613</v>
       </c>
       <c r="N19" s="1">
         <f>'[1]Qc, 2020, Summer'!N19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="O19" s="1">
         <f>'[1]Qc, 2020, Summer'!O19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4389401740802152</v>
+        <v>2.1950461566721939</v>
       </c>
       <c r="P19" s="1">
         <f>'[1]Qc, 2020, Summer'!P19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220789</v>
+        <v>1.7769421268298711</v>
       </c>
       <c r="Q19" s="1">
         <f>'[1]Qc, 2020, Summer'!Q19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="R19" s="1">
         <f>'[1]Qc, 2020, Summer'!R19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="S19" s="1">
         <f>'[1]Qc, 2020, Summer'!S19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="T19" s="1">
         <f>'[1]Qc, 2020, Summer'!T19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673834</v>
+        <v>0.73168205222406457</v>
       </c>
       <c r="U19" s="1">
         <f>'[1]Qc, 2020, Summer'!U19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="V19" s="1">
         <f>'[1]Qc, 2020, Summer'!V19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="W19" s="1">
         <f>'[1]Qc, 2020, Summer'!W19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="X19" s="1">
         <f>'[1]Qc, 2020, Summer'!X19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="Y19" s="1">
         <f>'[1]Qc, 2020, Summer'!Y19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906813</v>
+        <v>-0.20905201492116132</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -36479,99 +36479,99 @@
       </c>
       <c r="B20" s="1">
         <f>'[1]Qc, 2020, Summer'!B20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="C20" s="1">
         <f>'[1]Qc, 2020, Summer'!C20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220789</v>
+        <v>1.7769421268298711</v>
       </c>
       <c r="D20" s="1">
         <f>'[1]Qc, 2020, Summer'!D20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="E20" s="1">
         <f>'[1]Qc, 2020, Summer'!E20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534767</v>
+        <v>1.4633641044481291</v>
       </c>
       <c r="F20" s="1">
         <f>'[1]Qc, 2020, Summer'!F20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7421001243430108</v>
+        <v>1.5678901119087099</v>
       </c>
       <c r="G20" s="1">
         <f>'[1]Qc, 2020, Summer'!G20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="H20" s="1">
         <f>'[1]Qc, 2020, Summer'!H20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="I20" s="1">
         <f>'[1]Qc, 2020, Summer'!I20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.090520149211613</v>
+        <v>1.8814681342904518</v>
       </c>
       <c r="J20" s="1">
         <f>'[1]Qc, 2020, Summer'!J20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="K20" s="1">
         <f>'[1]Qc, 2020, Summer'!K20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="L20" s="1">
         <f>'[1]Qc, 2020, Summer'!L20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="M20" s="1">
         <f>'[1]Qc, 2020, Summer'!M20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9035002072383516</v>
+        <v>2.6131501865145164</v>
       </c>
       <c r="N20" s="1">
         <f>'[1]Qc, 2020, Summer'!N20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0196402155278856</v>
+        <v>2.7176761939750973</v>
       </c>
       <c r="O20" s="1">
         <f>'[1]Qc, 2020, Summer'!O20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9035002072383516</v>
+        <v>2.6131501865145164</v>
       </c>
       <c r="P20" s="1">
         <f>'[1]Qc, 2020, Summer'!P20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4389401740802152</v>
+        <v>2.1950461566721939</v>
       </c>
       <c r="Q20" s="1">
         <f>'[1]Qc, 2020, Summer'!Q20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="R20" s="1">
         <f>'[1]Qc, 2020, Summer'!R20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9035002072383516</v>
+        <v>2.6131501865145164</v>
       </c>
       <c r="S20" s="1">
         <f>'[1]Qc, 2020, Summer'!S20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9035002072383516</v>
+        <v>2.6131501865145164</v>
       </c>
       <c r="T20" s="1">
         <f>'[1]Qc, 2020, Summer'!T20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="U20" s="1">
         <f>'[1]Qc, 2020, Summer'!U20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="V20" s="1">
         <f>'[1]Qc, 2020, Summer'!V20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="W20" s="1">
         <f>'[1]Qc, 2020, Summer'!W20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="X20" s="1">
         <f>'[1]Qc, 2020, Summer'!X20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.671220190659283</v>
+        <v>2.4040981715933549</v>
       </c>
       <c r="Y20" s="1">
         <f>'[1]Qc, 2020, Summer'!Y20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9035002072383516</v>
+        <v>2.6131501865145164</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -36580,99 +36580,99 @@
       </c>
       <c r="B21" s="1">
         <f>'[1]Qc, 2020, Summer'!B21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58070004144767029</v>
+        <v>-0.52263003730290325</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]Qc, 2020, Summer'!C21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="D21" s="1">
         <f>'[1]Qc, 2020, Summer'!D21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="E21" s="1">
         <f>'[1]Qc, 2020, Summer'!E21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="F21" s="1">
         <f>'[1]Qc, 2020, Summer'!F21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.81298005802673834</v>
+        <v>-0.73168205222406457</v>
       </c>
       <c r="G21" s="1">
         <f>'[1]Qc, 2020, Summer'!G21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5098201077639428</v>
+        <v>-1.3588380969875486</v>
       </c>
       <c r="H21" s="1">
         <f>'[1]Qc, 2020, Summer'!H21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="I21" s="1">
         <f>'[1]Qc, 2020, Summer'!I21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46456003315813627</v>
+        <v>0.41810402984232264</v>
       </c>
       <c r="J21" s="1">
         <f>'[1]Qc, 2020, Summer'!J21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="K21" s="1">
         <f>'[1]Qc, 2020, Summer'!K21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3936800994744087</v>
+        <v>1.2543120895269679</v>
       </c>
       <c r="L21" s="1">
         <f>'[1]Qc, 2020, Summer'!L21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="M21" s="1">
         <f>'[1]Qc, 2020, Summer'!M21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220789</v>
+        <v>1.7769421268298711</v>
       </c>
       <c r="N21" s="1">
         <f>'[1]Qc, 2020, Summer'!N21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="O21" s="1">
         <f>'[1]Qc, 2020, Summer'!O21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220789</v>
+        <v>1.7769421268298711</v>
       </c>
       <c r="P21" s="1">
         <f>'[1]Qc, 2020, Summer'!P21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8582401326325451</v>
+        <v>1.6724161193692906</v>
       </c>
       <c r="Q21" s="1">
         <f>'[1]Qc, 2020, Summer'!Q21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="R21" s="1">
         <f>'[1]Qc, 2020, Summer'!R21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2775400911848747</v>
+        <v>1.1497860820663872</v>
       </c>
       <c r="S21" s="1">
         <f>'[1]Qc, 2020, Summer'!S21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81298005802673834</v>
+        <v>0.73168205222406457</v>
       </c>
       <c r="T21" s="1">
         <f>'[1]Qc, 2020, Summer'!T21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58070004144767029</v>
+        <v>0.52263003730290325</v>
       </c>
       <c r="U21" s="1">
         <f>'[1]Qc, 2020, Summer'!U21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="V21" s="1">
         <f>'[1]Qc, 2020, Summer'!V21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="W21" s="1">
         <f>'[1]Qc, 2020, Summer'!W21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860219</v>
+        <v>0.31357802238174198</v>
       </c>
       <c r="X21" s="1">
         <f>'[1]Qc, 2020, Summer'!X21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34842002486860219</v>
+        <v>-0.31357802238174198</v>
       </c>
       <c r="Y21" s="1">
         <f>'[1]Qc, 2020, Summer'!Y21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3936800994744087</v>
+        <v>-1.2543120895269679</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -36681,99 +36681,99 @@
       </c>
       <c r="B22" s="1">
         <f>'[1]Qc, 2020, Summer'!B22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.69684004973720437</v>
+        <v>-0.62715604476348397</v>
       </c>
       <c r="C22" s="1">
         <f>'[1]Qc, 2020, Summer'!C22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="D22" s="1">
         <f>'[1]Qc, 2020, Summer'!D22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="E22" s="1">
         <f>'[1]Qc, 2020, Summer'!E22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="F22" s="1">
         <f>'[1]Qc, 2020, Summer'!F22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.92912006631627253</v>
+        <v>-0.83620805968464529</v>
       </c>
       <c r="G22" s="1">
         <f>'[1]Qc, 2020, Summer'!G22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0452600746058065</v>
+        <v>-0.94073406714522589</v>
       </c>
       <c r="H22" s="1">
         <f>'[1]Qc, 2020, Summer'!H22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11614000828953407</v>
+        <v>-0.10452600746058066</v>
       </c>
       <c r="I22" s="1">
         <f>'[1]Qc, 2020, Summer'!I22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="J22" s="1">
         <f>'[1]Qc, 2020, Summer'!J22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="K22" s="1">
         <f>'[1]Qc, 2020, Summer'!K22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2775400911848747</v>
+        <v>1.1497860820663872</v>
       </c>
       <c r="L22" s="1">
         <f>'[1]Qc, 2020, Summer'!L22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="M22" s="1">
         <f>'[1]Qc, 2020, Summer'!M22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534767</v>
+        <v>1.4633641044481291</v>
       </c>
       <c r="N22" s="1">
         <f>'[1]Qc, 2020, Summer'!N22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="O22" s="1">
         <f>'[1]Qc, 2020, Summer'!O22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3936800994744087</v>
+        <v>1.2543120895269679</v>
       </c>
       <c r="P22" s="1">
         <f>'[1]Qc, 2020, Summer'!P22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3936800994744087</v>
+        <v>1.2543120895269679</v>
       </c>
       <c r="Q22" s="1">
         <f>'[1]Qc, 2020, Summer'!Q22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="R22" s="1">
         <f>'[1]Qc, 2020, Summer'!R22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="S22" s="1">
         <f>'[1]Qc, 2020, Summer'!S22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1614000828953406</v>
+        <v>1.0452600746058065</v>
       </c>
       <c r="T22" s="1">
         <f>'[1]Qc, 2020, Summer'!T22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="U22" s="1">
         <f>'[1]Qc, 2020, Summer'!U22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="V22" s="1">
         <f>'[1]Qc, 2020, Summer'!V22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="W22" s="1">
         <f>'[1]Qc, 2020, Summer'!W22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92912006631627253</v>
+        <v>0.83620805968464529</v>
       </c>
       <c r="X22" s="1">
         <f>'[1]Qc, 2020, Summer'!X22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69684004973720437</v>
+        <v>0.62715604476348397</v>
       </c>
       <c r="Y22" s="1">
         <f>'[1]Qc, 2020, Summer'!Y22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906813</v>
+        <v>-0.20905201492116132</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -36782,99 +36782,99 @@
       </c>
       <c r="B23" s="1">
         <f>'[1]Qc, 2020, Summer'!B23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0452600746058065</v>
+        <v>0.94073406714522589</v>
       </c>
       <c r="C23" s="1">
         <f>'[1]Qc, 2020, Summer'!C23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534767</v>
+        <v>1.4633641044481291</v>
       </c>
       <c r="D23" s="1">
         <f>'[1]Qc, 2020, Summer'!D23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534767</v>
+        <v>1.4633641044481291</v>
       </c>
       <c r="E23" s="1">
         <f>'[1]Qc, 2020, Summer'!E23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534767</v>
+        <v>1.4633641044481291</v>
       </c>
       <c r="F23" s="1">
         <f>'[1]Qc, 2020, Summer'!F23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220789</v>
+        <v>1.7769421268298711</v>
       </c>
       <c r="G23" s="1">
         <f>'[1]Qc, 2020, Summer'!G23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220789</v>
+        <v>1.7769421268298711</v>
       </c>
       <c r="H23" s="1">
         <f>'[1]Qc, 2020, Summer'!H23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534767</v>
+        <v>1.4633641044481291</v>
       </c>
       <c r="I23" s="1">
         <f>'[1]Qc, 2020, Summer'!I23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639428</v>
+        <v>1.3588380969875486</v>
       </c>
       <c r="J23" s="1">
         <f>'[1]Qc, 2020, Summer'!J23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220789</v>
+        <v>1.7769421268298711</v>
       </c>
       <c r="K23" s="1">
         <f>'[1]Qc, 2020, Summer'!K23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9743801409220789</v>
+        <v>1.7769421268298711</v>
       </c>
       <c r="L23" s="1">
         <f>'[1]Qc, 2020, Summer'!L23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="M23" s="1">
         <f>'[1]Qc, 2020, Summer'!M23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="N23" s="1">
         <f>'[1]Qc, 2020, Summer'!N23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="O23" s="1">
         <f>'[1]Qc, 2020, Summer'!O23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5550801823697493</v>
+        <v>2.2995721641327744</v>
       </c>
       <c r="P23" s="1">
         <f>'[1]Qc, 2020, Summer'!P23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="Q23" s="1">
         <f>'[1]Qc, 2020, Summer'!Q23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7873601989488175</v>
+        <v>2.5086241790539359</v>
       </c>
       <c r="R23" s="1">
         <f>'[1]Qc, 2020, Summer'!R23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="S23" s="1">
         <f>'[1]Qc, 2020, Summer'!S23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="T23" s="1">
         <f>'[1]Qc, 2020, Summer'!T23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="U23" s="1">
         <f>'[1]Qc, 2020, Summer'!U23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="V23" s="1">
         <f>'[1]Qc, 2020, Summer'!V23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="W23" s="1">
         <f>'[1]Qc, 2020, Summer'!W23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2066601575011471</v>
+        <v>1.9859941417510323</v>
       </c>
       <c r="X23" s="1">
         <f>'[1]Qc, 2020, Summer'!X23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.090520149211613</v>
+        <v>1.8814681342904518</v>
       </c>
       <c r="Y23" s="1">
         <f>'[1]Qc, 2020, Summer'!Y23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6259601160534767</v>
+        <v>1.4633641044481291</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -36883,99 +36883,99 @@
       </c>
       <c r="B24" s="1">
         <f>'[1]Qc, 2020, Summer'!B24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.684880762637132</v>
+        <v>-9.6163926863734197</v>
       </c>
       <c r="C24" s="1">
         <f>'[1]Qc, 2020, Summer'!C24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-13.007680928427813</v>
+        <v>-11.706912835585033</v>
       </c>
       <c r="D24" s="1">
         <f>'[1]Qc, 2020, Summer'!D24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-15.330481094218495</v>
+        <v>-13.797432984796645</v>
       </c>
       <c r="E24" s="1">
         <f>'[1]Qc, 2020, Summer'!E24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-22.29888159159054</v>
+        <v>-20.068993432431487</v>
       </c>
       <c r="F24" s="1">
         <f>'[1]Qc, 2020, Summer'!F24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-23.460281674485881</v>
+        <v>-21.11425350703729</v>
       </c>
       <c r="G24" s="1">
         <f>'[1]Qc, 2020, Summer'!G24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-26.944481923171899</v>
+        <v>-24.25003373085471</v>
       </c>
       <c r="H24" s="1">
         <f>'[1]Qc, 2020, Summer'!H24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-18.814681342904517</v>
+        <v>-16.933213208614067</v>
       </c>
       <c r="I24" s="1">
         <f>'[1]Qc, 2020, Summer'!I24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906808</v>
+        <v>-0.20905201492116127</v>
       </c>
       <c r="J24" s="1">
         <f>'[1]Qc, 2020, Summer'!J24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7361204807929749</v>
+        <v>6.0625084327136776</v>
       </c>
       <c r="K24" s="1">
         <f>'[1]Qc, 2020, Summer'!K24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.350121309746381</v>
+        <v>16.515109178771745</v>
       </c>
       <c r="L24" s="1">
         <f>'[1]Qc, 2020, Summer'!L24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.18872122685104</v>
+        <v>15.469849104165936</v>
       </c>
       <c r="M24" s="1">
         <f>'[1]Qc, 2020, Summer'!M24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.381720812374338</v>
+        <v>10.243548731136904</v>
       </c>
       <c r="N24" s="1">
         <f>'[1]Qc, 2020, Summer'!N24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7361204807929749</v>
+        <v>6.0625084327136776</v>
       </c>
       <c r="O24" s="1">
         <f>'[1]Qc, 2020, Summer'!O24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.7164802652650901</v>
+        <v>-3.3448322387385812</v>
       </c>
       <c r="P24" s="1">
         <f>'[1]Qc, 2020, Summer'!P24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3936800994744087</v>
+        <v>-1.2543120895269679</v>
       </c>
       <c r="Q24" s="1">
         <f>'[1]Qc, 2020, Summer'!Q24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2006805139511121</v>
+        <v>-6.4806124625560004</v>
       </c>
       <c r="R24" s="1">
         <f>'[1]Qc, 2020, Summer'!R24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2006805139511121</v>
+        <v>-6.4806124625560004</v>
       </c>
       <c r="S24" s="1">
         <f>'[1]Qc, 2020, Summer'!S24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.5234806797417928</v>
+        <v>-8.571132611767613</v>
       </c>
       <c r="T24" s="1">
         <f>'[1]Qc, 2020, Summer'!T24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23228001657906808</v>
+        <v>-0.20905201492116127</v>
       </c>
       <c r="U24" s="1">
         <f>'[1]Qc, 2020, Summer'!U24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5550801823697493</v>
+        <v>-2.2995721641327744</v>
       </c>
       <c r="V24" s="1">
         <f>'[1]Qc, 2020, Summer'!V24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.5234806797417928</v>
+        <v>-8.571132611767613</v>
       </c>
       <c r="W24" s="1">
         <f>'[1]Qc, 2020, Summer'!W24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.846280845532473</v>
+        <v>-10.661652760979226</v>
       </c>
       <c r="X24" s="1">
         <f>'[1]Qc, 2020, Summer'!X24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.846280845532473</v>
+        <v>-10.661652760979226</v>
       </c>
       <c r="Y24" s="1">
         <f>'[1]Qc, 2020, Summer'!Y24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17.653281260009177</v>
+        <v>-15.887953134008258</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -36984,87 +36984,87 @@
       </c>
       <c r="B25" s="1">
         <f>'[1]Qc, 2020, Summer'!B25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3168205222406462</v>
+        <v>-6.5851384700165818</v>
       </c>
       <c r="C25" s="1">
         <f>'[1]Qc, 2020, Summer'!C25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3168205222406453</v>
+        <v>-6.5851384700165809</v>
       </c>
       <c r="D25" s="1">
         <f>'[1]Qc, 2020, Summer'!D25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.8326202735546246</v>
+        <v>-3.4493582461991621</v>
       </c>
       <c r="E25" s="1">
         <f>'[1]Qc, 2020, Summer'!E25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3228001657906803</v>
+        <v>-2.0905201492116121</v>
       </c>
       <c r="F25" s="1">
         <f>'[1]Qc, 2020, Summer'!F25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.5294603232918282</v>
+        <v>-4.0765142909626455</v>
       </c>
       <c r="G25" s="1">
         <f>'[1]Qc, 2020, Summer'!G25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.6712201906592843</v>
+        <v>-2.4040981715933558</v>
       </c>
       <c r="H25" s="1">
         <f>'[1]Qc, 2020, Summer'!H25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.9940203564499646</v>
+        <v>-4.4946183208049684</v>
       </c>
       <c r="I25" s="1">
         <f>'[1]Qc, 2020, Summer'!I25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0392804310557722</v>
+        <v>5.4353523879501955</v>
       </c>
       <c r="J25" s="1">
         <f>'[1]Qc, 2020, Summer'!J25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5491005388197152</v>
+        <v>6.7941904849377428</v>
       </c>
       <c r="K25" s="1">
         <f>'[1]Qc, 2020, Summer'!K25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098201077639435</v>
+        <v>1.3588380969875491</v>
       </c>
       <c r="L25" s="1">
         <f>'[1]Qc, 2020, Summer'!L25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7164802652650879</v>
+        <v>3.3448322387385794</v>
       </c>
       <c r="M25" s="1">
         <f>'[1]Qc, 2020, Summer'!M25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8266406300045883</v>
+        <v>7.9439765670041291</v>
       </c>
       <c r="N25" s="1">
         <f>'[1]Qc, 2020, Summer'!N25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0845405056615762</v>
+        <v>6.376086455095419</v>
       </c>
       <c r="O25" s="1">
         <f>'[1]Qc, 2020, Summer'!O25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3620805968464538</v>
+        <v>7.525872537161808</v>
       </c>
       <c r="P25" s="1">
         <f>'[1]Qc, 2020, Summer'!P25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0905201492116117</v>
+        <v>1.8814681342904507</v>
       </c>
       <c r="Q25" s="1">
         <f>'[1]Qc, 2020, Summer'!Q25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.10418072118946</v>
+        <v>9.0937626490705146</v>
       </c>
       <c r="R25" s="1">
         <f>'[1]Qc, 2020, Summer'!R25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.2912006631627229</v>
+        <v>8.362080596846452</v>
       </c>
       <c r="S25" s="1">
         <f>'[1]Qc, 2020, Summer'!S25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1101603647394986</v>
+        <v>4.5991443282655489</v>
       </c>
       <c r="T25" s="1">
         <f>'[1]Qc, 2020, Summer'!T25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0392804310557695</v>
+        <v>5.4353523879501928</v>
       </c>
       <c r="U25" s="1">
         <f>'[1]Qc, 2020, Summer'!U25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0845405056615771</v>
+        <v>6.3760864550954199</v>
       </c>
       <c r="V25" s="1">
         <f>'[1]Qc, 2020, Summer'!V25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.4842002486860215</v>
+        <v>-3.1357802238174197</v>
       </c>
       <c r="W25" s="1">
         <f>'[1]Qc, 2020, Summer'!W25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -37072,11 +37072,11 @@
       </c>
       <c r="X25" s="1">
         <f>'[1]Qc, 2020, Summer'!X25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34842002486860302</v>
+        <v>0.3135780223817427</v>
       </c>
       <c r="Y25" s="1">
         <f>'[1]Qc, 2020, Summer'!Y25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.6456003315813605</v>
+        <v>-4.1810402984232242</v>
       </c>
     </row>
   </sheetData>

--- a/data/HR1/Location1/Location1_2050.xlsx
+++ b/data/HR1/Location1/Location1_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1D155-1453-441F-9253-BFE159B269BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591EA1F-8601-4D72-A781-70B5598B5833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8183,12 +8183,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8201,10 +8201,10 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8242,82 +8242,82 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" s="8"/>
     </row>
   </sheetData>
@@ -8334,9 +8334,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>0.6198407555605685</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>-5.0688643955190198</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>5.6199244454345356</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>16.811110651042121</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>-9.5647527713881936E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>164.8362049755558</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>18.754095340295546</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>-17.485926298968689</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>-17.616779920460729</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>-5.7824440709961333</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>-1.5251624339700001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>-1.9106716274459414</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>-1.6651560669087369</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>-0.29502114213678293</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>-2.7152425905293356</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>2.3833161157627774</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>-2.549189398442842</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>5.3760968617879312</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>36</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>2.3533963385099996</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>-2.7151302065954592</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>55</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>1.2748299147043565</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>68</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>2.3401849640231949</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>72</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>11.790013109862898</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>103</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>-12.795403317464098</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10863,7 +10863,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10889,7 +10889,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10915,7 +10915,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10941,7 +10941,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10967,7 +10967,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10993,7 +10993,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11019,7 +11019,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -11055,12 +11055,12 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>0.71395355000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>3.0450549000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>4.3353324000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>6.3223597499999995</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>1.48812005</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>8.2835815499999992</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>3.8622306500000003</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>22.244384100000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>0.83437945000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>4.08587875</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>1.1010368000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>7.7416650000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>0.67954615000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>1.14404605</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>3.5611659000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>1.9096107000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>1.7977866499999999</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>5.16111E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>42</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>2.8386105000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>0.86878685</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>0.78276835000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>7.9395075500000001</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -14277,13 +14277,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7F27C5-ECAC-4498-ABD1-B02555F56FCB}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>2.4900998489999999</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>10.620425861999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>15.120606312</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>22.050884204999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>5.1902081189999993</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>28.891158488999999</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>13.470540146999999</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>77.583110957999992</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>2.9101166909999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>14.250571424999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>3.8401539840000001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>0.27001082699999995</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>2.370095037</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>3.9901599989999994</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>12.420498041999998</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>6.6602670660000003</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>6.2702514269999989</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>0.18000721799999997</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>42</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>9.9003969899999991</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>3.0301215029999997</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>2.7301094730000002</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>27.691110368999997</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -17504,9 +17504,9 @@
       <selection activeCell="B2" sqref="B2:Y32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>42</v>
       </c>
@@ -20310,7 +20310,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -20727,9 +20727,9 @@
       <selection activeCell="A16" sqref="A16:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -21268,7 +21268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36</v>
       </c>
@@ -21807,7 +21807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -21985,7 +21985,7 @@
         <v>3.7035999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>0.15856049999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -22187,7 +22187,7 @@
         <v>0.22568850000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>0.32869500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>7.7544500000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -22490,7 +22490,7 @@
         <v>0.43112299999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>0.20080500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>12</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>1.1573775000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>4.3401500000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>0.21237900000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>17</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>5.7290000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>18</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>4.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -23197,7 +23197,7 @@
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>5.9604999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -23399,7 +23399,7 @@
         <v>0.1851805</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>9.9534499999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>35</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>9.3747500000000011E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>36</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>2.8934999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>0.14756550000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>55</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>4.5137499999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>68</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>4.0507999999999995E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>72</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>0.413184</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>103</v>
       </c>
@@ -24221,9 +24221,9 @@
       <selection activeCell="A16" sqref="A16:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -24762,7 +24762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -24993,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -25070,7 +25070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -25147,7 +25147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -25224,7 +25224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36</v>
       </c>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -25917,7 +25917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>12</v>
       </c>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -26148,7 +26148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>17</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>18</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -26379,7 +26379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -26533,7 +26533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>35</v>
       </c>
@@ -26687,7 +26687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>36</v>
       </c>
@@ -26764,7 +26764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>55</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>68</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>72</v>
       </c>
@@ -27072,7 +27072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>103</v>
       </c>
@@ -27163,9 +27163,9 @@
       <selection activeCell="A16" sqref="A16:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27242,7 +27242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -27550,7 +27550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -27858,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -27935,7 +27935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -28012,7 +28012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -28089,7 +28089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -28397,7 +28397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -28551,7 +28551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -28628,7 +28628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -28782,7 +28782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -28859,7 +28859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>12</v>
       </c>
@@ -28936,7 +28936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -29013,7 +29013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -29090,7 +29090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>17</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>18</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -29321,7 +29321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -29398,7 +29398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -29475,7 +29475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -29552,7 +29552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>35</v>
       </c>
@@ -29629,7 +29629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>36</v>
       </c>
@@ -29706,7 +29706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -29783,7 +29783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>55</v>
       </c>
@@ -29860,7 +29860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>68</v>
       </c>
@@ -29937,7 +29937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>72</v>
       </c>
@@ -30014,7 +30014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>103</v>
       </c>
@@ -30105,9 +30105,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -30184,7 +30184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30285,7 +30285,7 @@
         <v>5.270197891882761</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>40.59164918889384</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30487,7 +30487,7 @@
         <v>55.860844191712658</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30588,7 +30588,7 @@
         <v>84.395681388991378</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30689,7 +30689,7 @@
         <v>0.35522090075709523</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -30891,7 +30891,7 @@
         <v>26.178857731004641</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -30992,7 +30992,7 @@
         <v>43.763401186617486</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>251.45815411361161</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -31194,7 +31194,7 @@
         <v>7.6197203232047581</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>44.365466818309997</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -31396,7 +31396,7 @@
         <v>12.525173972680879</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -31497,7 +31497,7 @@
         <v>0.84551020351500006</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -31598,7 +31598,7 @@
         <v>7.8754965014717602</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -31699,7 +31699,7 @@
         <v>13.736223960300865</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
@@ -31800,7 +31800,7 @@
         <v>41.219284698937237</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
@@ -31901,7 +31901,7 @@
         <v>23.170971746358511</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35</v>
       </c>
@@ -32002,7 +32002,7 @@
         <v>21.504324597295</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>36</v>
       </c>
@@ -32103,7 +32103,7 @@
         <v>0.218576008785</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -32204,7 +32204,7 @@
         <v>37.673017402009421</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>55</v>
       </c>
@@ -32305,7 +32305,7 @@
         <v>8.6277237137250005</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>68</v>
       </c>
@@ -32406,7 +32406,7 @@
         <v>4.4934130773518755</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>72</v>
       </c>
@@ -32507,7 +32507,7 @@
         <v>141.26727649406462</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>103</v>
       </c>
@@ -32608,7 +32608,7 @@
         <v>68.916526356027845</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -32634,7 +32634,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -32660,7 +32660,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -32686,7 +32686,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -32712,7 +32712,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -32738,7 +32738,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -32764,7 +32764,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -32790,7 +32790,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -32829,9 +32829,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -32908,7 +32908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33009,7 +33009,7 @@
         <v>0.6765627501125181</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33110,7 +33110,7 @@
         <v>-1.5442982143946444</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33211,7 +33211,7 @@
         <v>-6.0973563445619048</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33312,7 +33312,7 @@
         <v>10.062742197765759</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33413,7 +33413,7 @@
         <v>-1.3147605063426437</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -33514,7 +33514,7 @@
         <v>167.95049013943785</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -33615,7 +33615,7 @@
         <v>44.6813790271475</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -33716,7 +33716,7 @@
         <v>-12.632928247351424</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -33817,7 +33817,7 @@
         <v>-26.238198174681234</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -33918,7 +33918,7 @@
         <v>-7.1020844027240555</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -34019,7 +34019,7 @@
         <v>-0.85685174270499997</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -34120,7 +34120,7 @@
         <v>-1.1488422052780423</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -34221,7 +34221,7 @@
         <v>-2.5537212056649996</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -34322,7 +34322,7 @@
         <v>-0.20264542031571003</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -34423,7 +34423,7 @@
         <v>-0.60909540123096984</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
@@ -34524,7 +34524,7 @@
         <v>3.9783690172653183</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
@@ -34625,7 +34625,7 @@
         <v>-1.7024836304896029</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35</v>
       </c>
@@ -34726,7 +34726,7 @@
         <v>2.5043686032444366</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>36</v>
       </c>
@@ -34827,7 +34827,7 @@
         <v>2.4678676911699999</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -34928,7 +34928,7 @@
         <v>0.19734450448436217</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>55</v>
       </c>
@@ -35029,7 +35029,7 @@
         <v>-0.69187832269499994</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>68</v>
       </c>
@@ -35130,7 +35130,7 @@
         <v>0.309646507173298</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>72</v>
       </c>
@@ -35231,7 +35231,7 @@
         <v>-36.308068171105191</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>103</v>
       </c>
@@ -35332,7 +35332,7 @@
         <v>-15.890732117932739</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -35358,7 +35358,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -35384,7 +35384,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -35410,7 +35410,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -35436,7 +35436,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -35462,7 +35462,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -35488,7 +35488,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -35514,7 +35514,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -35553,9 +35553,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -35632,7 +35632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -35733,7 +35733,7 @@
         <v>0.71395355000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -35834,7 +35834,7 @@
         <v>3.0450549000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -35935,7 +35935,7 @@
         <v>4.3353324000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -36036,7 +36036,7 @@
         <v>6.3223597499999995</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -36137,7 +36137,7 @@
         <v>1.48812005</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -36238,7 +36238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -36339,7 +36339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -36440,7 +36440,7 @@
         <v>8.2835815499999992</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -36541,7 +36541,7 @@
         <v>3.8622306500000003</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -36642,7 +36642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -36743,7 +36743,7 @@
         <v>22.244384100000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -36844,7 +36844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -36945,7 +36945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -37046,7 +37046,7 @@
         <v>0.83437945000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -37147,7 +37147,7 @@
         <v>4.08587875</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -37248,7 +37248,7 @@
         <v>1.1010368000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -37349,7 +37349,7 @@
         <v>7.7416650000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -37450,7 +37450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -37551,7 +37551,7 @@
         <v>0.67954615000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -37652,7 +37652,7 @@
         <v>1.14404605</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -37753,7 +37753,7 @@
         <v>3.5611659000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -37854,7 +37854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -37955,7 +37955,7 @@
         <v>1.9096107000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -38056,7 +38056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -38157,7 +38157,7 @@
         <v>1.7977866499999999</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -38258,7 +38258,7 @@
         <v>5.16111E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>42</v>
       </c>
@@ -38359,7 +38359,7 @@
         <v>2.8386105000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -38460,7 +38460,7 @@
         <v>0.86878685</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68</v>
       </c>
@@ -38561,7 +38561,7 @@
         <v>0.78276835000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -38662,7 +38662,7 @@
         <v>7.9395075500000001</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -38776,12 +38776,12 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -38858,7 +38858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -38948,9 +38948,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -39027,7 +39027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -39128,7 +39128,7 @@
         <v>2.4900998489999999</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -39229,7 +39229,7 @@
         <v>10.620425861999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39330,7 +39330,7 @@
         <v>15.120606312</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -39431,7 +39431,7 @@
         <v>22.050884204999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -39532,7 +39532,7 @@
         <v>5.1902081189999993</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -39633,7 +39633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -39734,7 +39734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -39835,7 +39835,7 @@
         <v>28.891158488999999</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -39936,7 +39936,7 @@
         <v>13.470540146999999</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -40037,7 +40037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -40138,7 +40138,7 @@
         <v>77.583110957999992</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -40239,7 +40239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -40340,7 +40340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -40441,7 +40441,7 @@
         <v>2.9101166909999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -40542,7 +40542,7 @@
         <v>14.250571424999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -40643,7 +40643,7 @@
         <v>3.8401539840000001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -40744,7 +40744,7 @@
         <v>0.27001082699999995</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -40845,7 +40845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -40946,7 +40946,7 @@
         <v>2.370095037</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -41047,7 +41047,7 @@
         <v>3.9901599989999994</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -41148,7 +41148,7 @@
         <v>12.420498041999998</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -41249,7 +41249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>6.6602670660000003</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -41451,7 +41451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -41552,7 +41552,7 @@
         <v>6.2702514269999989</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -41653,7 +41653,7 @@
         <v>0.18000721799999997</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>42</v>
       </c>
@@ -41754,7 +41754,7 @@
         <v>9.9003969899999991</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -41855,7 +41855,7 @@
         <v>3.0301215029999997</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68</v>
       </c>
@@ -41956,7 +41956,7 @@
         <v>2.7301094730000002</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>27.691110368999997</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -42171,9 +42171,9 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -42250,7 +42250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -42351,7 +42351,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -42452,7 +42452,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -42553,7 +42553,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -42654,7 +42654,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -42755,7 +42755,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -42856,7 +42856,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -42957,7 +42957,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -43058,7 +43058,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -43159,7 +43159,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -43260,7 +43260,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -43361,7 +43361,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -43462,7 +43462,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -43563,7 +43563,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -43664,7 +43664,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -43765,7 +43765,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -43866,7 +43866,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -43967,7 +43967,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -44068,7 +44068,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -44169,7 +44169,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -44270,7 +44270,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -44371,7 +44371,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -44472,7 +44472,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -44573,7 +44573,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -44674,7 +44674,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -44775,7 +44775,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -44876,7 +44876,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>42</v>
       </c>
@@ -44977,7 +44977,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -45078,7 +45078,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68</v>
       </c>
@@ -45179,7 +45179,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -45280,7 +45280,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -45394,9 +45394,9 @@
       <selection activeCell="A16" sqref="A16:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -45473,7 +45473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -45550,7 +45550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -45627,7 +45627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -45704,7 +45704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -45781,7 +45781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -45858,7 +45858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -45935,7 +45935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -46012,7 +46012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -46089,7 +46089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -46166,7 +46166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -46243,7 +46243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -46320,7 +46320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -46397,7 +46397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36</v>
       </c>
@@ -46474,7 +46474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -46551,7 +46551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -46652,7 +46652,7 @@
         <v>3.7035999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -46753,7 +46753,7 @@
         <v>0.15856049999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -46854,7 +46854,7 @@
         <v>0.22568850000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -46955,7 +46955,7 @@
         <v>0.32869500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -47056,7 +47056,7 @@
         <v>7.7544500000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -47157,7 +47157,7 @@
         <v>0.43112299999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -47258,7 +47258,7 @@
         <v>0.20080500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>12</v>
       </c>
@@ -47359,7 +47359,7 @@
         <v>1.1573775000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -47460,7 +47460,7 @@
         <v>4.3401500000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -47561,7 +47561,7 @@
         <v>0.21237900000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>17</v>
       </c>
@@ -47662,7 +47662,7 @@
         <v>5.7290000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>18</v>
       </c>
@@ -47763,7 +47763,7 @@
         <v>4.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -47864,7 +47864,7 @@
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -47965,7 +47965,7 @@
         <v>5.9604999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -48066,7 +48066,7 @@
         <v>0.1851805</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -48167,7 +48167,7 @@
         <v>9.9534499999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>35</v>
       </c>
@@ -48268,7 +48268,7 @@
         <v>9.3747500000000011E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>36</v>
       </c>
@@ -48369,7 +48369,7 @@
         <v>2.8934999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -48470,7 +48470,7 @@
         <v>0.14756550000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>55</v>
       </c>
@@ -48571,7 +48571,7 @@
         <v>4.5137499999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>68</v>
       </c>
@@ -48672,7 +48672,7 @@
         <v>4.0507999999999995E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>72</v>
       </c>
@@ -48773,7 +48773,7 @@
         <v>0.413184</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>103</v>
       </c>
@@ -48888,9 +48888,9 @@
       <selection activeCell="A16" sqref="A16:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -48967,7 +48967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -49044,7 +49044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -49121,7 +49121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -49198,7 +49198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -49275,7 +49275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -49352,7 +49352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -49429,7 +49429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -49506,7 +49506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -49583,7 +49583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -49660,7 +49660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -49737,7 +49737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -49814,7 +49814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -49891,7 +49891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36</v>
       </c>
@@ -49968,7 +49968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -50045,7 +50045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -50122,7 +50122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -50199,7 +50199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -50276,7 +50276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -50353,7 +50353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -50430,7 +50430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -50507,7 +50507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -50584,7 +50584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>12</v>
       </c>
@@ -50661,7 +50661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -50738,7 +50738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -50815,7 +50815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>17</v>
       </c>
@@ -50892,7 +50892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>18</v>
       </c>
@@ -50969,7 +50969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -51046,7 +51046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -51123,7 +51123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -51200,7 +51200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -51277,7 +51277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>35</v>
       </c>
@@ -51354,7 +51354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>36</v>
       </c>
@@ -51431,7 +51431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -51508,7 +51508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>55</v>
       </c>
@@ -51585,7 +51585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>68</v>
       </c>
@@ -51662,7 +51662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>72</v>
       </c>
@@ -51739,7 +51739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>103</v>
       </c>
@@ -51828,9 +51828,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -51907,7 +51907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -51984,7 +51984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -52061,7 +52061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -52138,7 +52138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -52215,7 +52215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -52292,7 +52292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -52369,7 +52369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -52446,7 +52446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -52523,7 +52523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -52600,7 +52600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -52677,7 +52677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -52754,7 +52754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -52831,7 +52831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36</v>
       </c>
@@ -52908,7 +52908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -52985,7 +52985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -53062,7 +53062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -53139,7 +53139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -53216,7 +53216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -53293,7 +53293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -53370,7 +53370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -53447,7 +53447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -53524,7 +53524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>12</v>
       </c>
@@ -53601,7 +53601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -53678,7 +53678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -53755,7 +53755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>17</v>
       </c>
@@ -53832,7 +53832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>18</v>
       </c>
@@ -53909,7 +53909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -53986,7 +53986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -54063,7 +54063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>26</v>
       </c>
@@ -54140,7 +54140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -54217,7 +54217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>35</v>
       </c>
@@ -54294,7 +54294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>36</v>
       </c>
@@ -54371,7 +54371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -54448,7 +54448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>55</v>
       </c>
@@ -54525,7 +54525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>68</v>
       </c>
@@ -54602,7 +54602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>72</v>
       </c>
@@ -54679,7 +54679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>103</v>
       </c>
@@ -54770,12 +54770,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -54783,7 +54783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -54791,7 +54791,7 @@
         <v>7.4071999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -54799,7 +54799,7 @@
         <v>31.7121</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -54807,7 +54807,7 @@
         <v>45.137700000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -54815,7 +54815,7 @@
         <v>65.739000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -54823,7 +54823,7 @@
         <v>15.508900000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>9</v>
       </c>
@@ -54831,7 +54831,7 @@
         <v>86.224599999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>10</v>
       </c>
@@ -54839,7 +54839,7 @@
         <v>40.161000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>12</v>
       </c>
@@ -54847,7 +54847,7 @@
         <v>231.47550000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>15</v>
       </c>
@@ -54855,7 +54855,7 @@
         <v>8.6803000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>16</v>
       </c>
@@ -54863,7 +54863,7 @@
         <v>42.4758</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>17</v>
       </c>
@@ -54871,7 +54871,7 @@
         <v>11.458</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>18</v>
       </c>
@@ -54879,7 +54879,7 @@
         <v>0.81020000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>20</v>
       </c>
@@ -54887,7 +54887,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>21</v>
       </c>
@@ -54895,7 +54895,7 @@
         <v>11.920999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>26</v>
       </c>
@@ -54903,7 +54903,7 @@
         <v>37.036099999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>30</v>
       </c>
@@ -54911,7 +54911,7 @@
         <v>19.9069</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>35</v>
       </c>
@@ -54919,7 +54919,7 @@
         <v>18.749500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>36</v>
       </c>
@@ -54927,7 +54927,7 @@
         <v>0.57869999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42</v>
       </c>
@@ -54935,7 +54935,7 @@
         <v>29.513100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>55</v>
       </c>
@@ -54943,7 +54943,7 @@
         <v>9.0274999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>68</v>
       </c>
@@ -54951,7 +54951,7 @@
         <v>8.1015999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>72</v>
       </c>
@@ -54959,7 +54959,7 @@
         <v>82.636799999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>103</v>
       </c>
@@ -54967,251 +54967,251 @@
         <v>83.678399999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
     </row>
@@ -55234,9 +55234,9 @@
       <selection activeCell="A2" sqref="A2:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -55301,7 +55301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -55367,7 +55367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -55433,7 +55433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -55499,7 +55499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -55565,7 +55565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -55631,7 +55631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>9</v>
       </c>
@@ -55697,7 +55697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>10</v>
       </c>
@@ -55763,7 +55763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>12</v>
       </c>
@@ -55829,7 +55829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>15</v>
       </c>
@@ -55895,7 +55895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>16</v>
       </c>
@@ -55961,7 +55961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>17</v>
       </c>
@@ -56027,7 +56027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>18</v>
       </c>
@@ -56093,7 +56093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>20</v>
       </c>
@@ -56159,7 +56159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>21</v>
       </c>
@@ -56225,7 +56225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>26</v>
       </c>
@@ -56291,7 +56291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>30</v>
       </c>
@@ -56357,7 +56357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>35</v>
       </c>
@@ -56423,7 +56423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>36</v>
       </c>
@@ -56489,7 +56489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42</v>
       </c>
@@ -56555,7 +56555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>55</v>
       </c>
@@ -56621,7 +56621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>68</v>
       </c>
@@ -56687,7 +56687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>72</v>
       </c>
@@ -56753,7 +56753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>103</v>
       </c>
@@ -56819,7 +56819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -56828,7 +56828,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -56837,7 +56837,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -56846,7 +56846,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -56855,7 +56855,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -56864,7 +56864,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -56873,7 +56873,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -56882,7 +56882,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -56904,12 +56904,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -56917,7 +56917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -56925,7 +56925,7 @@
         <v>13.904</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -56933,7 +56933,7 @@
         <v>59.526699999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -56941,7 +56941,7 @@
         <v>84.727800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -56949,7 +56949,7 @@
         <v>123.3984</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -56957,7 +56957,7 @@
         <v>29.111599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>9</v>
       </c>
@@ -56965,7 +56965,7 @@
         <v>161.8518</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>10</v>
       </c>
@@ -56973,7 +56973,7 @@
         <v>75.385999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>12</v>
       </c>
@@ -56981,7 +56981,7 @@
         <v>434.50150000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>15</v>
       </c>
@@ -56989,7 +56989,7 @@
         <v>16.293800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>16</v>
       </c>
@@ -56997,7 +56997,7 @@
         <v>79.730999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>17</v>
       </c>
@@ -57005,7 +57005,7 @@
         <v>21.5078</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>18</v>
       </c>
@@ -57013,7 +57013,7 @@
         <v>1.5207999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>20</v>
       </c>
@@ -57021,7 +57021,7 @@
         <v>13.2523</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>21</v>
       </c>
@@ -57029,7 +57029,7 @@
         <v>22.376799999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>26</v>
       </c>
@@ -57037,7 +57037,7 @@
         <v>69.520200000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>30</v>
       </c>
@@ -57045,7 +57045,7 @@
         <v>37.367100000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>35</v>
       </c>
@@ -57053,7 +57053,7 @@
         <v>35.194600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>36</v>
       </c>
@@ -57061,7 +57061,7 @@
         <v>1.0863</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42</v>
       </c>
@@ -57069,7 +57069,7 @@
         <v>55.398899999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>55</v>
       </c>
@@ -57077,7 +57077,7 @@
         <v>16.945599999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>68</v>
       </c>
@@ -57085,7 +57085,7 @@
         <v>15.207599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>72</v>
       </c>
@@ -57093,7 +57093,7 @@
         <v>155.11699999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>103</v>
       </c>
@@ -57111,13 +57111,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1609A8E-6D38-4FC2-90C0-BA8BC856C5CA}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -57143,7 +57143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -57172,7 +57172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -57201,7 +57201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -57230,7 +57230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -57259,7 +57259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -57288,7 +57288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>9</v>
       </c>
@@ -57317,7 +57317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>10</v>
       </c>
@@ -57346,7 +57346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>12</v>
       </c>
@@ -57375,7 +57375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>15</v>
       </c>
@@ -57404,7 +57404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>16</v>
       </c>
@@ -57433,7 +57433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>17</v>
       </c>
@@ -57462,7 +57462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>18</v>
       </c>
@@ -57491,7 +57491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>20</v>
       </c>
@@ -57520,7 +57520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>21</v>
       </c>
@@ -57549,7 +57549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>26</v>
       </c>
@@ -57578,7 +57578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>30</v>
       </c>
@@ -57607,7 +57607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>35</v>
       </c>
@@ -57636,7 +57636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>36</v>
       </c>
@@ -57665,7 +57665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42</v>
       </c>
@@ -57694,7 +57694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>55</v>
       </c>
@@ -57723,7 +57723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>68</v>
       </c>
@@ -57752,7 +57752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>72</v>
       </c>
@@ -57781,7 +57781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>103</v>
       </c>
@@ -57823,9 +57823,9 @@
       <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -57833,7 +57833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -57841,7 +57841,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -57849,7 +57849,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -57857,7 +57857,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -57865,7 +57865,7 @@
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -57873,7 +57873,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -57881,7 +57881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -57889,7 +57889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -57897,7 +57897,7 @@
         <v>9.6299999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -57905,7 +57905,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -57913,7 +57913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -57921,7 +57921,7 @@
         <v>0.2586</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -57929,7 +57929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -57937,7 +57937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -57945,7 +57945,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -57953,7 +57953,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -57961,7 +57961,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -57969,7 +57969,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -57977,7 +57977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -57985,7 +57985,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -57993,7 +57993,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -58001,7 +58001,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -58009,7 +58009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -58017,7 +58017,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -58025,7 +58025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -58033,7 +58033,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -58041,7 +58041,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>42</v>
       </c>
@@ -58049,7 +58049,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -58057,7 +58057,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68</v>
       </c>
@@ -58065,7 +58065,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -58073,7 +58073,7 @@
         <v>9.2299999999999993E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -58092,12 +58092,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -58174,7 +58174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -58251,7 +58251,7 @@
         <v>103.366</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -58328,7 +58328,7 @@
         <v>-196.64603</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -58405,7 +58405,7 @@
         <v>189.3845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
   </sheetData>
@@ -58421,9 +58421,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -58500,7 +58500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -58601,7 +58601,7 @@
         <v>1.7772308585077865</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -58702,7 +58702,7 @@
         <v>38.390442008724634</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -58803,7 +58803,7 @@
         <v>41.463020301893422</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -58904,7 +58904,7 @@
         <v>125.07454271169915</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -59005,7 +59005,7 @@
         <v>-1.0159228280612103</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -59106,7 +59106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -59207,7 +59207,7 @@
         <v>47.71672451787321</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -59308,7 +59308,7 @@
         <v>54.471089508822558</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -59409,7 +59409,7 @@
         <v>384.30096785161919</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -59510,7 +59510,7 @@
         <v>7.9594780315086178</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -59611,7 +59611,7 @@
         <v>53.104007872104994</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -59712,7 +59712,7 @@
         <v>14.437815593187024</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -59813,7 +59813,7 @@
         <v>1.2146330459084604</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -59914,7 +59914,7 @@
         <v>7.0440812865351381</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -60015,7 +60015,7 @@
         <v>13.56994124052677</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
@@ -60116,7 +60116,7 @@
         <v>45.07799391160669</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
@@ -60217,7 +60217,7 @@
         <v>20.61263864560955</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35</v>
       </c>
@@ -60318,7 +60318,7 @@
         <v>33.295961937813985</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>36</v>
       </c>
@@ -60419,7 +60419,7 @@
         <v>-0.19217413899499997</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -60520,7 +60520,7 @@
         <v>30.440842005303868</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>55</v>
       </c>
@@ -60621,7 +60621,7 @@
         <v>7.6651300353736262</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>68</v>
       </c>
@@ -60722,7 +60722,7 @@
         <v>10.526006883797891</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>72</v>
       </c>
@@ -60823,7 +60823,7 @@
         <v>46.348790829335059</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>103</v>
       </c>
@@ -60924,7 +60924,7 @@
         <v>14.731544606977419</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -60950,7 +60950,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -60976,7 +60976,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -61002,7 +61002,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -61028,7 +61028,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -61054,7 +61054,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -61080,7 +61080,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -61106,7 +61106,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
